--- a/pre_post_Meralco_test_Lab.xlsx
+++ b/pre_post_Meralco_test_Lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbinguna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B79239-FAE2-4C71-BED2-7DA05F36A31F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728173A3-DB84-429D-9298-FE79AE065592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSL" sheetId="9" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="294" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="62">
   <si>
     <t>Client Node Name</t>
   </si>
@@ -97,9 +97,6 @@
     <t>GigabitEthernet0/0/0/3</t>
   </si>
   <si>
-    <t>PDLP9300SW</t>
-  </si>
-  <si>
     <t>BEFORE CUT OVER</t>
   </si>
   <si>
@@ -178,9 +175,6 @@
     <t>common</t>
   </si>
   <si>
-    <t>infra</t>
-  </si>
-  <si>
     <t>static configuration</t>
   </si>
   <si>
@@ -209,30 +203,6 @@
   </si>
   <si>
     <t>Mac Count</t>
-  </si>
-  <si>
-    <t>TenGig1/1/1</t>
-  </si>
-  <si>
-    <t>TenGig1/1/2</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/1/3</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/1/4</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/1/5</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/1/6</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/1/7</t>
-  </si>
-  <si>
-    <t>GigabitEthernet1/1/8</t>
   </si>
   <si>
     <t>UPE21</t>
@@ -850,7 +820,7 @@
     <row r="4" spans="1:27">
       <c r="A4" s="10"/>
       <c r="B4" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C4" s="10" t="s">
         <v>16</v>
@@ -883,10 +853,10 @@
     <row r="5" spans="1:27">
       <c r="A5" s="10"/>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C5" s="10" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="D5" s="10"/>
       <c r="E5" s="10"/>
@@ -916,7 +886,7 @@
     <row r="6" spans="1:27">
       <c r="A6" s="10"/>
       <c r="B6" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C6" s="10" t="s">
         <v>17</v>
@@ -951,10 +921,10 @@
     <row r="7" spans="1:27">
       <c r="A7" s="10"/>
       <c r="B7" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D7" s="10"/>
       <c r="E7" s="10"/>
@@ -1254,6 +1224,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
@@ -1270,7 +1241,6 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1282,10 +1252,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="A5" sqref="A5:XFD8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1301,17 +1271,17 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
       <c r="H1" s="12" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
@@ -1320,109 +1290,61 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="1" t="s">
         <v>22</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>23</v>
       </c>
       <c r="H2" s="12"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2"/>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F4" s="5" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="G4" s="2"/>
       <c r="H4" s="2"/>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -1451,44 +1373,44 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B1" s="3" t="s">
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="D1" t="s">
         <v>28</v>
-      </c>
-      <c r="D1" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B2" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C2" s="10" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="D2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B3" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C3" s="10" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
   </sheetData>
@@ -1505,7 +1427,7 @@
   <dimension ref="A1:AK24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A6" sqref="A6:XFD24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1578,40 +1500,40 @@
         <v>4</v>
       </c>
       <c r="D2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="E2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="F2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="H2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="H2" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="I2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="J2" s="12"/>
       <c r="K2" s="12"/>
       <c r="L2" s="12"/>
       <c r="M2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="N2" s="12"/>
       <c r="O2" s="12"/>
       <c r="P2" s="12"/>
       <c r="Q2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="R2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="S2" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="S2" s="12" t="s">
-        <v>38</v>
       </c>
       <c r="T2" s="12" t="s">
         <v>3</v>
@@ -1620,40 +1542,40 @@
         <v>4</v>
       </c>
       <c r="V2" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="W2" s="12" t="s">
         <v>32</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="X2" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y2" s="12" t="s">
         <v>33</v>
       </c>
-      <c r="X2" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Z2" s="12" t="s">
         <v>34</v>
       </c>
-      <c r="Z2" s="12" t="s">
-        <v>35</v>
-      </c>
       <c r="AA2" s="12" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="AB2" s="12"/>
       <c r="AC2" s="12"/>
       <c r="AD2" s="12"/>
       <c r="AE2" s="12" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="AF2" s="12"/>
       <c r="AG2" s="12"/>
       <c r="AH2" s="12"/>
       <c r="AI2" s="12" t="s">
+        <v>35</v>
+      </c>
+      <c r="AJ2" s="12" t="s">
         <v>36</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AK2" s="12" t="s">
         <v>37</v>
-      </c>
-      <c r="AK2" s="12" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:37">
@@ -1666,18 +1588,18 @@
       <c r="G3" s="12"/>
       <c r="H3" s="12"/>
       <c r="I3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="J3" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="N3" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="N3" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -1692,18 +1614,18 @@
       <c r="Y3" s="12"/>
       <c r="Z3" s="12"/>
       <c r="AA3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB3" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="AB3" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="AC3" s="12"/>
       <c r="AD3" s="12"/>
       <c r="AE3" s="12" t="s">
+        <v>38</v>
+      </c>
+      <c r="AF3" s="12" t="s">
         <v>39</v>
-      </c>
-      <c r="AF3" s="12" t="s">
-        <v>40</v>
       </c>
       <c r="AG3" s="12"/>
       <c r="AH3" s="12"/>
@@ -1722,23 +1644,23 @@
       <c r="H4" s="12"/>
       <c r="I4" s="12"/>
       <c r="J4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="K4" s="1" t="s">
+      <c r="L4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="L4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="M4" s="12"/>
       <c r="N4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="O4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="O4" s="1" t="s">
+      <c r="P4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="P4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="Q4" s="12"/>
       <c r="R4" s="12"/>
@@ -1752,23 +1674,23 @@
       <c r="Z4" s="12"/>
       <c r="AA4" s="12"/>
       <c r="AB4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AC4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AC4" s="1" t="s">
+      <c r="AD4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AD4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="AE4" s="12"/>
       <c r="AF4" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AG4" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="AG4" s="1" t="s">
+      <c r="AH4" s="1" t="s">
         <v>42</v>
-      </c>
-      <c r="AH4" s="1" t="s">
-        <v>43</v>
       </c>
       <c r="AI4" s="12"/>
       <c r="AJ4" s="12"/>
@@ -1776,22 +1698,22 @@
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="2" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B5" s="10" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="C5" s="5" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="D5" s="5" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E5" s="5" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="F5" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G5" s="6"/>
       <c r="H5" s="2"/>
@@ -1826,9 +1748,7 @@
       <c r="AK5" s="2"/>
     </row>
     <row r="6" spans="1:37">
-      <c r="A6" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A6" s="2"/>
       <c r="B6" s="5"/>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -1867,9 +1787,7 @@
       <c r="AK6" s="2"/>
     </row>
     <row r="7" spans="1:37">
-      <c r="A7" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A7" s="2"/>
       <c r="B7" s="5"/>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
@@ -1908,9 +1826,7 @@
       <c r="AK7" s="2"/>
     </row>
     <row r="8" spans="1:37">
-      <c r="A8" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A8" s="2"/>
       <c r="B8" s="5"/>
       <c r="C8" s="5"/>
       <c r="D8" s="5"/>
@@ -1949,9 +1865,7 @@
       <c r="AK8" s="2"/>
     </row>
     <row r="9" spans="1:37">
-      <c r="A9" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A9" s="2"/>
       <c r="B9" s="5"/>
       <c r="C9" s="5"/>
       <c r="D9" s="5"/>
@@ -1990,9 +1904,7 @@
       <c r="AK9" s="2"/>
     </row>
     <row r="10" spans="1:37">
-      <c r="A10" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A10" s="2"/>
       <c r="B10" s="5"/>
       <c r="C10" s="5"/>
       <c r="D10" s="5"/>
@@ -2031,9 +1943,7 @@
       <c r="AK10" s="2"/>
     </row>
     <row r="11" spans="1:37">
-      <c r="A11" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A11" s="2"/>
       <c r="B11" s="5"/>
       <c r="C11" s="5"/>
       <c r="D11" s="5"/>
@@ -2072,9 +1982,7 @@
       <c r="AK11" s="2"/>
     </row>
     <row r="12" spans="1:37">
-      <c r="A12" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A12" s="2"/>
       <c r="B12" s="5"/>
       <c r="C12" s="5"/>
       <c r="D12" s="5"/>
@@ -2113,9 +2021,7 @@
       <c r="AK12" s="2"/>
     </row>
     <row r="13" spans="1:37">
-      <c r="A13" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A13" s="2"/>
       <c r="B13" s="5"/>
       <c r="C13" s="5"/>
       <c r="D13" s="5"/>
@@ -2154,9 +2060,7 @@
       <c r="AK13" s="2"/>
     </row>
     <row r="14" spans="1:37">
-      <c r="A14" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A14" s="2"/>
       <c r="B14" s="5"/>
       <c r="C14" s="5"/>
       <c r="D14" s="5"/>
@@ -2195,9 +2099,7 @@
       <c r="AK14" s="2"/>
     </row>
     <row r="15" spans="1:37">
-      <c r="A15" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A15" s="2"/>
       <c r="B15" s="5"/>
       <c r="C15" s="5"/>
       <c r="D15" s="5"/>
@@ -2236,9 +2138,7 @@
       <c r="AK15" s="2"/>
     </row>
     <row r="16" spans="1:37">
-      <c r="A16" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A16" s="2"/>
       <c r="B16" s="5"/>
       <c r="C16" s="5"/>
       <c r="D16" s="5"/>
@@ -2277,9 +2177,7 @@
       <c r="AK16" s="2"/>
     </row>
     <row r="17" spans="1:37">
-      <c r="A17" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A17" s="2"/>
       <c r="B17" s="5"/>
       <c r="C17" s="5"/>
       <c r="D17" s="5"/>
@@ -2318,9 +2216,7 @@
       <c r="AK17" s="2"/>
     </row>
     <row r="18" spans="1:37">
-      <c r="A18" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A18" s="2"/>
       <c r="B18" s="5"/>
       <c r="C18" s="5"/>
       <c r="D18" s="5"/>
@@ -2359,9 +2255,7 @@
       <c r="AK18" s="2"/>
     </row>
     <row r="19" spans="1:37">
-      <c r="A19" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A19" s="2"/>
       <c r="B19" s="5"/>
       <c r="C19" s="5"/>
       <c r="D19" s="5"/>
@@ -2400,9 +2294,7 @@
       <c r="AK19" s="2"/>
     </row>
     <row r="20" spans="1:37">
-      <c r="A20" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
       <c r="D20" s="5"/>
@@ -2441,9 +2333,7 @@
       <c r="AK20" s="2"/>
     </row>
     <row r="21" spans="1:37" ht="18" customHeight="1">
-      <c r="A21" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
@@ -2482,9 +2372,7 @@
       <c r="AK21" s="2"/>
     </row>
     <row r="22" spans="1:37">
-      <c r="A22" s="2" t="s">
-        <v>44</v>
-      </c>
+      <c r="A22" s="2"/>
       <c r="B22" s="5"/>
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
@@ -2523,9 +2411,7 @@
       <c r="AK22" s="2"/>
     </row>
     <row r="23" spans="1:37">
-      <c r="A23" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A23" s="2"/>
       <c r="B23" s="5"/>
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
@@ -2564,9 +2450,7 @@
       <c r="AK23" s="2"/>
     </row>
     <row r="24" spans="1:37">
-      <c r="A24" s="2" t="s">
-        <v>45</v>
-      </c>
+      <c r="A24" s="2"/>
       <c r="B24" s="5"/>
       <c r="C24" s="5"/>
       <c r="D24" s="5"/>
@@ -2606,26 +2490,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="B1:S1"/>
     <mergeCell ref="T1:AK1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
@@ -2641,6 +2505,26 @@
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2652,10 +2536,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2670,12 +2554,12 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F1" s="12"/>
       <c r="G1" s="12"/>
@@ -2686,94 +2570,39 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E2" s="1" t="s">
         <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B3" s="10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>24</v>
-      </c>
-      <c r="B3" s="10" t="s">
-        <v>64</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>25</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="10" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="F3" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G3" s="2"/>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B4" s="2"/>
-      <c r="C4" s="5"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="5"/>
-      <c r="G4" s="2"/>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B5" s="2"/>
-      <c r="C5" s="5"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="5"/>
-      <c r="G5" s="2"/>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B6" s="2"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="2"/>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B7" s="2"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="2"/>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="B8" s="2"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -2794,7 +2623,7 @@
   <dimension ref="A1:O3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:O3"/>
+      <selection activeCell="I43" sqref="I43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2828,16 +2657,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="F2" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="G2" s="14"/>
       <c r="H2" s="14"/>
@@ -2845,16 +2674,16 @@
         <v>3</v>
       </c>
       <c r="J2" s="13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="K2" s="13" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="L2" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="M2" s="13" t="s">
         <v>39</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>40</v>
       </c>
       <c r="N2" s="14"/>
       <c r="O2" s="14"/>
@@ -2866,26 +2695,26 @@
       <c r="D3" s="14"/>
       <c r="E3" s="14"/>
       <c r="F3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="G3" s="4" t="s">
+      <c r="H3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>43</v>
       </c>
       <c r="I3" s="14"/>
       <c r="J3" s="14"/>
       <c r="K3" s="14"/>
       <c r="L3" s="14"/>
       <c r="M3" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="N3" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="N3" s="4" t="s">
+      <c r="O3" s="4" t="s">
         <v>42</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>43</v>
       </c>
     </row>
   </sheetData>
@@ -2913,17 +2742,21 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S2"/>
+      <selection activeCell="J25" sqref="J25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <cols>
+    <col min="2" max="2" width="10" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="14.5703125" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:19">
       <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -2952,55 +2785,55 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3019,7 +2852,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:S2"/>
+      <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3029,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C1" s="11"/>
       <c r="D1" s="11"/>
@@ -3058,55 +2891,55 @@
         <v>3</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="G2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="I2" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>53</v>
       </c>
       <c r="J2" s="3" t="s">
         <v>3</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="M2" s="3" t="s">
+      <c r="O2" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="N2" s="3" t="s">
+      <c r="P2" s="3" t="s">
         <v>50</v>
       </c>
-      <c r="O2" s="3" t="s">
+      <c r="Q2" s="3" t="s">
         <v>51</v>
       </c>
-      <c r="P2" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>53</v>
-      </c>
       <c r="R2" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="S2" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
     </row>
   </sheetData>
@@ -3124,8 +2957,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:I1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -3144,13 +2977,13 @@
         <v>0</v>
       </c>
       <c r="B1" s="12" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C1" s="12"/>
       <c r="D1" s="12"/>
       <c r="E1" s="12"/>
       <c r="F1" s="12" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="G1" s="12"/>
       <c r="H1" s="12"/>
@@ -3165,10 +2998,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>3</v>
@@ -3177,199 +3010,119 @@
         <v>4</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="2"/>
-      <c r="B3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>56</v>
-      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" s="2"/>
       <c r="H3" s="2"/>
       <c r="I3" s="2"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" s="2"/>
-      <c r="B4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
       <c r="D4" s="2"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>57</v>
-      </c>
+      <c r="F4" s="2"/>
+      <c r="G4" s="2"/>
       <c r="H4" s="2"/>
       <c r="I4" s="2"/>
     </row>
     <row r="5" spans="1:9">
       <c r="A5" s="2"/>
-      <c r="B5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="B5" s="2"/>
+      <c r="C5" s="2"/>
       <c r="D5" s="2"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>58</v>
-      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="2"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="2"/>
-      <c r="B6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>59</v>
-      </c>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
     </row>
     <row r="7" spans="1:9">
       <c r="A7" s="2"/>
-      <c r="B7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="B7" s="2"/>
+      <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="F7" s="2"/>
+      <c r="G7" s="2"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
     </row>
     <row r="8" spans="1:9">
       <c r="A8" s="2"/>
-      <c r="B8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="B8" s="2"/>
+      <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F8" s="2"/>
+      <c r="G8" s="2"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
     </row>
     <row r="9" spans="1:9">
       <c r="A9" s="2"/>
-      <c r="B9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>62</v>
-      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" s="2"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
     </row>
     <row r="10" spans="1:9">
       <c r="A10" s="2"/>
-      <c r="B10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G10" s="2" t="s">
-        <v>63</v>
-      </c>
+      <c r="F10" s="2"/>
+      <c r="G10" s="2"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
     </row>
     <row r="11" spans="1:9">
       <c r="A11" s="2"/>
-      <c r="B11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G11" s="2" t="s">
-        <v>61</v>
-      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" s="2"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
     </row>
     <row r="12" spans="1:9">
       <c r="A12" s="2"/>
-      <c r="B12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G12" s="2" t="s">
-        <v>60</v>
-      </c>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
     </row>

--- a/pre_post_Meralco_test_Lab.xlsx
+++ b/pre_post_Meralco_test_Lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbinguna\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{728173A3-DB84-429D-9298-FE79AE065592}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06268BEB-DA2C-4736-9523-32A2B77A917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSL" sheetId="9" r:id="rId1"/>
@@ -18,10 +18,9 @@
     <sheet name="Details" sheetId="8" r:id="rId3"/>
     <sheet name="L3VPN-ENTR" sheetId="2" r:id="rId4"/>
     <sheet name="static-route-configuration" sheetId="5" r:id="rId5"/>
-    <sheet name="Custom Ping" sheetId="18" r:id="rId6"/>
-    <sheet name="BGP_CE" sheetId="19" r:id="rId7"/>
-    <sheet name="BGP_RR" sheetId="20" r:id="rId8"/>
-    <sheet name="VLAN" sheetId="21" r:id="rId9"/>
+    <sheet name="BGP_CE" sheetId="19" r:id="rId6"/>
+    <sheet name="BGP_RR" sheetId="20" r:id="rId7"/>
+    <sheet name="VLAN" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -41,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="226" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="62">
   <si>
     <t>Client Node Name</t>
   </si>
@@ -233,19 +232,12 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <charset val="134"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <i/>
@@ -255,7 +247,7 @@
       <charset val="134"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -266,12 +258,6 @@
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor rgb="FFFFFF00"/>
       </patternFill>
     </fill>
   </fills>
@@ -330,19 +316,16 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -358,10 +341,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -653,61 +632,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:27">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10"/>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="P1" s="11"/>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-      <c r="S1" s="11"/>
-      <c r="T1" s="11"/>
-      <c r="U1" s="11"/>
-      <c r="V1" s="11"/>
-      <c r="W1" s="11"/>
-      <c r="X1" s="11"/>
-      <c r="Y1" s="11"/>
-      <c r="Z1" s="11"/>
-      <c r="AA1" s="11"/>
+      <c r="P1" s="10"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+      <c r="S1" s="10"/>
+      <c r="T1" s="10"/>
+      <c r="U1" s="10"/>
+      <c r="V1" s="10"/>
+      <c r="W1" s="10"/>
+      <c r="X1" s="10"/>
+      <c r="Y1" s="10"/>
+      <c r="Z1" s="10"/>
+      <c r="AA1" s="10"/>
     </row>
     <row r="2" spans="1:27">
-      <c r="A2" s="11"/>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="10"/>
+      <c r="B2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="11" t="s">
+      <c r="F2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="11" t="s">
+      <c r="G2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="H2" s="11" t="s">
+      <c r="H2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="I2" s="3" t="s">
@@ -728,25 +707,25 @@
       <c r="N2" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="O2" s="11" t="s">
+      <c r="O2" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="P2" s="11" t="s">
+      <c r="P2" s="10" t="s">
         <v>4</v>
       </c>
-      <c r="Q2" s="11" t="s">
+      <c r="Q2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="R2" s="11" t="s">
+      <c r="R2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="S2" s="11" t="s">
+      <c r="S2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="T2" s="11" t="s">
+      <c r="T2" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="U2" s="11" t="s">
+      <c r="U2" s="10" t="s">
         <v>9</v>
       </c>
       <c r="V2" s="3" t="s">
@@ -765,14 +744,14 @@
       <c r="AA2" s="3"/>
     </row>
     <row r="3" spans="1:27">
-      <c r="A3" s="11"/>
-      <c r="B3" s="11"/>
-      <c r="C3" s="11"/>
-      <c r="D3" s="11"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="11"/>
+      <c r="A3" s="10"/>
+      <c r="B3" s="10"/>
+      <c r="C3" s="10"/>
+      <c r="D3" s="10"/>
+      <c r="E3" s="10"/>
+      <c r="F3" s="10"/>
+      <c r="G3" s="10"/>
+      <c r="H3" s="10"/>
       <c r="I3" s="3" t="s">
         <v>13</v>
       </c>
@@ -791,13 +770,13 @@
       <c r="N3" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="O3" s="11"/>
-      <c r="P3" s="11"/>
-      <c r="Q3" s="11"/>
-      <c r="R3" s="11"/>
-      <c r="S3" s="11"/>
-      <c r="T3" s="11"/>
-      <c r="U3" s="11"/>
+      <c r="O3" s="10"/>
+      <c r="P3" s="10"/>
+      <c r="Q3" s="10"/>
+      <c r="R3" s="10"/>
+      <c r="S3" s="10"/>
+      <c r="T3" s="10"/>
+      <c r="U3" s="10"/>
       <c r="V3" s="3" t="s">
         <v>13</v>
       </c>
@@ -818,412 +797,413 @@
       </c>
     </row>
     <row r="4" spans="1:27">
-      <c r="A4" s="10"/>
-      <c r="B4" s="10" t="s">
+      <c r="A4" s="9"/>
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="10" t="s">
+      <c r="C4" s="9" t="s">
         <v>16</v>
       </c>
-      <c r="D4" s="10"/>
-      <c r="E4" s="10"/>
-      <c r="F4" s="10"/>
-      <c r="G4" s="10"/>
-      <c r="H4" s="10"/>
-      <c r="I4" s="10"/>
-      <c r="J4" s="10"/>
-      <c r="K4" s="10"/>
-      <c r="L4" s="10"/>
-      <c r="M4" s="10"/>
-      <c r="N4" s="10"/>
-      <c r="O4" s="10"/>
-      <c r="P4" s="10"/>
-      <c r="Q4" s="10"/>
-      <c r="R4" s="10"/>
-      <c r="S4" s="10"/>
-      <c r="T4" s="10"/>
-      <c r="U4" s="10"/>
-      <c r="V4" s="10"/>
-      <c r="W4" s="10"/>
-      <c r="X4" s="10"/>
-      <c r="Y4" s="10"/>
-      <c r="Z4" s="10"/>
-      <c r="AA4" s="10"/>
+      <c r="D4" s="9"/>
+      <c r="E4" s="9"/>
+      <c r="F4" s="9"/>
+      <c r="G4" s="9"/>
+      <c r="H4" s="9"/>
+      <c r="I4" s="9"/>
+      <c r="J4" s="9"/>
+      <c r="K4" s="9"/>
+      <c r="L4" s="9"/>
+      <c r="M4" s="9"/>
+      <c r="N4" s="9"/>
+      <c r="O4" s="9"/>
+      <c r="P4" s="9"/>
+      <c r="Q4" s="9"/>
+      <c r="R4" s="9"/>
+      <c r="S4" s="9"/>
+      <c r="T4" s="9"/>
+      <c r="U4" s="9"/>
+      <c r="V4" s="9"/>
+      <c r="W4" s="9"/>
+      <c r="X4" s="9"/>
+      <c r="Y4" s="9"/>
+      <c r="Z4" s="9"/>
+      <c r="AA4" s="9"/>
     </row>
     <row r="5" spans="1:27">
-      <c r="A5" s="10"/>
-      <c r="B5" s="10" t="s">
+      <c r="A5" s="9"/>
+      <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="10" t="s">
+      <c r="C5" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="10"/>
-      <c r="E5" s="10"/>
-      <c r="F5" s="10"/>
-      <c r="G5" s="10"/>
-      <c r="H5" s="10"/>
-      <c r="I5" s="10"/>
-      <c r="J5" s="10"/>
-      <c r="K5" s="10"/>
-      <c r="L5" s="10"/>
-      <c r="M5" s="10"/>
-      <c r="N5" s="10"/>
-      <c r="O5" s="10"/>
-      <c r="P5" s="10"/>
-      <c r="Q5" s="10"/>
-      <c r="R5" s="10"/>
-      <c r="S5" s="10"/>
-      <c r="T5" s="10"/>
-      <c r="U5" s="10"/>
-      <c r="V5" s="10"/>
-      <c r="W5" s="10"/>
-      <c r="X5" s="10"/>
-      <c r="Y5" s="10"/>
-      <c r="Z5" s="10"/>
-      <c r="AA5" s="10"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="9"/>
+      <c r="K5" s="9"/>
+      <c r="L5" s="9"/>
+      <c r="M5" s="9"/>
+      <c r="N5" s="9"/>
+      <c r="O5" s="9"/>
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9"/>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9"/>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9"/>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9"/>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
     </row>
     <row r="6" spans="1:27">
-      <c r="A6" s="10"/>
-      <c r="B6" s="10" t="s">
+      <c r="A6" s="9"/>
+      <c r="B6" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C6" s="10" t="s">
+      <c r="C6" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="D6" s="10" t="s">
+      <c r="D6" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E6" s="10"/>
-      <c r="F6" s="10"/>
-      <c r="G6" s="10"/>
-      <c r="H6" s="10"/>
-      <c r="I6" s="10"/>
-      <c r="J6" s="10"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="10"/>
-      <c r="M6" s="10"/>
-      <c r="N6" s="10"/>
-      <c r="O6" s="10"/>
-      <c r="P6" s="10"/>
-      <c r="Q6" s="10"/>
-      <c r="R6" s="10"/>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10"/>
-      <c r="U6" s="10"/>
-      <c r="V6" s="10"/>
-      <c r="W6" s="10"/>
-      <c r="X6" s="10"/>
-      <c r="Y6" s="10"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="10"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="9"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9"/>
+      <c r="T6" s="9"/>
+      <c r="U6" s="9"/>
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9"/>
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9"/>
     </row>
     <row r="7" spans="1:27">
-      <c r="A7" s="10"/>
-      <c r="B7" s="10" t="s">
+      <c r="A7" s="9"/>
+      <c r="B7" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C7" s="10" t="s">
+      <c r="C7" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="10"/>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="G7" s="10"/>
-      <c r="H7" s="10"/>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
-      <c r="K7" s="10"/>
-      <c r="L7" s="10"/>
-      <c r="M7" s="10"/>
-      <c r="N7" s="10"/>
-      <c r="O7" s="10"/>
-      <c r="P7" s="10"/>
-      <c r="Q7" s="10"/>
-      <c r="R7" s="10"/>
-      <c r="S7" s="10"/>
-      <c r="T7" s="10"/>
-      <c r="U7" s="10"/>
-      <c r="V7" s="10"/>
-      <c r="W7" s="10"/>
-      <c r="X7" s="10"/>
-      <c r="Y7" s="10"/>
-      <c r="Z7" s="10"/>
-      <c r="AA7" s="10"/>
+      <c r="D7" s="9"/>
+      <c r="E7" s="9"/>
+      <c r="F7" s="9"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9"/>
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="9"/>
+      <c r="P7" s="9"/>
+      <c r="Q7" s="9"/>
+      <c r="R7" s="9"/>
+      <c r="S7" s="9"/>
+      <c r="T7" s="9"/>
+      <c r="U7" s="9"/>
+      <c r="V7" s="9"/>
+      <c r="W7" s="9"/>
+      <c r="X7" s="9"/>
+      <c r="Y7" s="9"/>
+      <c r="Z7" s="9"/>
+      <c r="AA7" s="9"/>
     </row>
     <row r="8" spans="1:27">
-      <c r="A8" s="10"/>
-      <c r="B8" s="10"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="10" t="s">
+      <c r="A8" s="9"/>
+      <c r="B8" s="9"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="G8" s="10"/>
-      <c r="H8" s="10"/>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
-      <c r="K8" s="10"/>
-      <c r="L8" s="10"/>
-      <c r="M8" s="10"/>
-      <c r="N8" s="10"/>
-      <c r="O8" s="10"/>
-      <c r="P8" s="10"/>
-      <c r="Q8" s="10"/>
-      <c r="R8" s="10"/>
-      <c r="S8" s="10"/>
-      <c r="T8" s="10"/>
-      <c r="U8" s="10"/>
-      <c r="V8" s="10"/>
-      <c r="W8" s="10"/>
-      <c r="X8" s="10"/>
-      <c r="Y8" s="10"/>
-      <c r="Z8" s="10"/>
-      <c r="AA8" s="10"/>
+      <c r="E8" s="9"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="9"/>
+      <c r="P8" s="9"/>
+      <c r="Q8" s="9"/>
+      <c r="R8" s="9"/>
+      <c r="S8" s="9"/>
+      <c r="T8" s="9"/>
+      <c r="U8" s="9"/>
+      <c r="V8" s="9"/>
+      <c r="W8" s="9"/>
+      <c r="X8" s="9"/>
+      <c r="Y8" s="9"/>
+      <c r="Z8" s="9"/>
+      <c r="AA8" s="9"/>
     </row>
     <row r="9" spans="1:27">
-      <c r="A9" s="10"/>
-      <c r="B9" s="10"/>
-      <c r="C9" s="10"/>
-      <c r="D9" s="10" t="s">
+      <c r="A9" s="9"/>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="G9" s="10"/>
-      <c r="H9" s="10"/>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
-      <c r="K9" s="10"/>
-      <c r="L9" s="10"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="10"/>
-      <c r="P9" s="10"/>
-      <c r="Q9" s="10"/>
-      <c r="R9" s="10"/>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
-      <c r="U9" s="10"/>
-      <c r="V9" s="10"/>
-      <c r="W9" s="10"/>
-      <c r="X9" s="10"/>
-      <c r="Y9" s="10"/>
-      <c r="Z9" s="10"/>
-      <c r="AA9" s="10"/>
+      <c r="E9" s="9"/>
+      <c r="F9" s="9"/>
+      <c r="G9" s="9"/>
+      <c r="H9" s="9"/>
+      <c r="I9" s="9"/>
+      <c r="J9" s="9"/>
+      <c r="K9" s="9"/>
+      <c r="L9" s="9"/>
+      <c r="M9" s="9"/>
+      <c r="N9" s="9"/>
+      <c r="O9" s="9"/>
+      <c r="P9" s="9"/>
+      <c r="Q9" s="9"/>
+      <c r="R9" s="9"/>
+      <c r="S9" s="9"/>
+      <c r="T9" s="9"/>
+      <c r="U9" s="9"/>
+      <c r="V9" s="9"/>
+      <c r="W9" s="9"/>
+      <c r="X9" s="9"/>
+      <c r="Y9" s="9"/>
+      <c r="Z9" s="9"/>
+      <c r="AA9" s="9"/>
     </row>
     <row r="10" spans="1:27">
-      <c r="A10" s="10"/>
-      <c r="B10" s="10"/>
-      <c r="C10" s="10"/>
-      <c r="D10" s="10" t="s">
+      <c r="A10" s="9"/>
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="G10" s="10"/>
-      <c r="H10" s="10"/>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
-      <c r="K10" s="10"/>
-      <c r="L10" s="10"/>
-      <c r="M10" s="10"/>
-      <c r="N10" s="10"/>
-      <c r="O10" s="10"/>
-      <c r="P10" s="10"/>
-      <c r="Q10" s="10"/>
-      <c r="R10" s="10"/>
-      <c r="S10" s="10"/>
-      <c r="T10" s="10"/>
-      <c r="U10" s="10"/>
-      <c r="V10" s="10"/>
-      <c r="W10" s="10"/>
-      <c r="X10" s="10"/>
-      <c r="Y10" s="10"/>
-      <c r="Z10" s="10"/>
-      <c r="AA10" s="10"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
+      <c r="I10" s="9"/>
+      <c r="J10" s="9"/>
+      <c r="K10" s="9"/>
+      <c r="L10" s="9"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+      <c r="V10" s="9"/>
+      <c r="W10" s="9"/>
+      <c r="X10" s="9"/>
+      <c r="Y10" s="9"/>
+      <c r="Z10" s="9"/>
+      <c r="AA10" s="9"/>
     </row>
     <row r="11" spans="1:27">
-      <c r="A11" s="10"/>
-      <c r="B11" s="10"/>
-      <c r="C11" s="10"/>
-      <c r="D11" s="10" t="s">
+      <c r="A11" s="9"/>
+      <c r="B11" s="9"/>
+      <c r="C11" s="9"/>
+      <c r="D11" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="G11" s="10"/>
-      <c r="H11" s="10"/>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
-      <c r="K11" s="10"/>
-      <c r="L11" s="10"/>
-      <c r="M11" s="10"/>
-      <c r="N11" s="10"/>
-      <c r="O11" s="10"/>
-      <c r="P11" s="10"/>
-      <c r="Q11" s="10"/>
-      <c r="R11" s="10"/>
-      <c r="S11" s="10"/>
-      <c r="T11" s="10"/>
-      <c r="U11" s="10"/>
-      <c r="V11" s="10"/>
-      <c r="W11" s="10"/>
-      <c r="X11" s="10"/>
-      <c r="Y11" s="10"/>
-      <c r="Z11" s="10"/>
-      <c r="AA11" s="10"/>
+      <c r="E11" s="9"/>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="9"/>
+      <c r="I11" s="9"/>
+      <c r="J11" s="9"/>
+      <c r="K11" s="9"/>
+      <c r="L11" s="9"/>
+      <c r="M11" s="9"/>
+      <c r="N11" s="9"/>
+      <c r="O11" s="9"/>
+      <c r="P11" s="9"/>
+      <c r="Q11" s="9"/>
+      <c r="R11" s="9"/>
+      <c r="S11" s="9"/>
+      <c r="T11" s="9"/>
+      <c r="U11" s="9"/>
+      <c r="V11" s="9"/>
+      <c r="W11" s="9"/>
+      <c r="X11" s="9"/>
+      <c r="Y11" s="9"/>
+      <c r="Z11" s="9"/>
+      <c r="AA11" s="9"/>
     </row>
     <row r="12" spans="1:27">
-      <c r="A12" s="10"/>
-      <c r="B12" s="10"/>
-      <c r="C12" s="10"/>
-      <c r="D12" s="10"/>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
-      <c r="K12" s="10"/>
-      <c r="L12" s="10"/>
-      <c r="M12" s="10"/>
-      <c r="N12" s="10"/>
-      <c r="O12" s="10"/>
-      <c r="P12" s="10"/>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10"/>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10"/>
-      <c r="U12" s="10"/>
-      <c r="V12" s="10"/>
-      <c r="W12" s="10"/>
-      <c r="X12" s="10"/>
-      <c r="Y12" s="10"/>
-      <c r="Z12" s="10"/>
-      <c r="AA12" s="10"/>
+      <c r="A12" s="9"/>
+      <c r="B12" s="9"/>
+      <c r="C12" s="9"/>
+      <c r="D12" s="9"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="9"/>
+      <c r="G12" s="9"/>
+      <c r="H12" s="9"/>
+      <c r="I12" s="9"/>
+      <c r="J12" s="9"/>
+      <c r="K12" s="9"/>
+      <c r="L12" s="9"/>
+      <c r="M12" s="9"/>
+      <c r="N12" s="9"/>
+      <c r="O12" s="9"/>
+      <c r="P12" s="9"/>
+      <c r="Q12" s="9"/>
+      <c r="R12" s="9"/>
+      <c r="S12" s="9"/>
+      <c r="T12" s="9"/>
+      <c r="U12" s="9"/>
+      <c r="V12" s="9"/>
+      <c r="W12" s="9"/>
+      <c r="X12" s="9"/>
+      <c r="Y12" s="9"/>
+      <c r="Z12" s="9"/>
+      <c r="AA12" s="9"/>
     </row>
     <row r="13" spans="1:27">
-      <c r="A13" s="10"/>
-      <c r="B13" s="10"/>
-      <c r="C13" s="10"/>
-      <c r="D13" s="10"/>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
-      <c r="K13" s="10"/>
-      <c r="L13" s="10"/>
-      <c r="M13" s="10"/>
-      <c r="N13" s="10"/>
-      <c r="O13" s="10"/>
-      <c r="P13" s="10"/>
-      <c r="Q13" s="10"/>
-      <c r="R13" s="10"/>
-      <c r="S13" s="10"/>
-      <c r="T13" s="10"/>
-      <c r="U13" s="10"/>
-      <c r="V13" s="10"/>
-      <c r="W13" s="10"/>
-      <c r="X13" s="10"/>
-      <c r="Y13" s="10"/>
-      <c r="Z13" s="10"/>
-      <c r="AA13" s="10"/>
+      <c r="A13" s="9"/>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="9"/>
+      <c r="G13" s="9"/>
+      <c r="H13" s="9"/>
+      <c r="I13" s="9"/>
+      <c r="J13" s="9"/>
+      <c r="K13" s="9"/>
+      <c r="L13" s="9"/>
+      <c r="M13" s="9"/>
+      <c r="N13" s="9"/>
+      <c r="O13" s="9"/>
+      <c r="P13" s="9"/>
+      <c r="Q13" s="9"/>
+      <c r="R13" s="9"/>
+      <c r="S13" s="9"/>
+      <c r="T13" s="9"/>
+      <c r="U13" s="9"/>
+      <c r="V13" s="9"/>
+      <c r="W13" s="9"/>
+      <c r="X13" s="9"/>
+      <c r="Y13" s="9"/>
+      <c r="Z13" s="9"/>
+      <c r="AA13" s="9"/>
     </row>
     <row r="14" spans="1:27">
-      <c r="A14" s="10"/>
-      <c r="B14" s="10"/>
-      <c r="C14" s="10"/>
-      <c r="D14" s="10" t="s">
+      <c r="A14" s="9"/>
+      <c r="B14" s="9"/>
+      <c r="C14" s="9"/>
+      <c r="D14" s="9" t="s">
         <v>11</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
-      <c r="K14" s="10"/>
-      <c r="L14" s="10"/>
-      <c r="M14" s="10"/>
-      <c r="N14" s="10"/>
-      <c r="O14" s="10"/>
-      <c r="P14" s="10"/>
-      <c r="Q14" s="10"/>
-      <c r="R14" s="10"/>
-      <c r="S14" s="10"/>
-      <c r="T14" s="10"/>
-      <c r="U14" s="10"/>
-      <c r="V14" s="10"/>
-      <c r="W14" s="10"/>
-      <c r="X14" s="10"/>
-      <c r="Y14" s="10"/>
-      <c r="Z14" s="10"/>
-      <c r="AA14" s="10"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="9"/>
+      <c r="G14" s="9"/>
+      <c r="H14" s="9"/>
+      <c r="I14" s="9"/>
+      <c r="J14" s="9"/>
+      <c r="K14" s="9"/>
+      <c r="L14" s="9"/>
+      <c r="M14" s="9"/>
+      <c r="N14" s="9"/>
+      <c r="O14" s="9"/>
+      <c r="P14" s="9"/>
+      <c r="Q14" s="9"/>
+      <c r="R14" s="9"/>
+      <c r="S14" s="9"/>
+      <c r="T14" s="9"/>
+      <c r="U14" s="9"/>
+      <c r="V14" s="9"/>
+      <c r="W14" s="9"/>
+      <c r="X14" s="9"/>
+      <c r="Y14" s="9"/>
+      <c r="Z14" s="9"/>
+      <c r="AA14" s="9"/>
     </row>
     <row r="15" spans="1:27">
-      <c r="A15" s="10"/>
-      <c r="B15" s="10"/>
-      <c r="C15" s="10"/>
-      <c r="D15" s="10"/>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
-      <c r="K15" s="10"/>
-      <c r="L15" s="10"/>
-      <c r="M15" s="10"/>
-      <c r="N15" s="10"/>
-      <c r="O15" s="10"/>
-      <c r="P15" s="10"/>
-      <c r="Q15" s="10"/>
-      <c r="R15" s="10"/>
-      <c r="S15" s="10"/>
-      <c r="T15" s="10"/>
-      <c r="U15" s="10"/>
-      <c r="V15" s="10"/>
-      <c r="W15" s="10"/>
-      <c r="X15" s="10"/>
-      <c r="Y15" s="10"/>
-      <c r="Z15" s="10"/>
-      <c r="AA15" s="10"/>
+      <c r="A15" s="9"/>
+      <c r="B15" s="9"/>
+      <c r="C15" s="9"/>
+      <c r="D15" s="9"/>
+      <c r="E15" s="9"/>
+      <c r="F15" s="9"/>
+      <c r="G15" s="9"/>
+      <c r="H15" s="9"/>
+      <c r="I15" s="9"/>
+      <c r="J15" s="9"/>
+      <c r="K15" s="9"/>
+      <c r="L15" s="9"/>
+      <c r="M15" s="9"/>
+      <c r="N15" s="9"/>
+      <c r="O15" s="9"/>
+      <c r="P15" s="9"/>
+      <c r="Q15" s="9"/>
+      <c r="R15" s="9"/>
+      <c r="S15" s="9"/>
+      <c r="T15" s="9"/>
+      <c r="U15" s="9"/>
+      <c r="V15" s="9"/>
+      <c r="W15" s="9"/>
+      <c r="X15" s="9"/>
+      <c r="Y15" s="9"/>
+      <c r="Z15" s="9"/>
+      <c r="AA15" s="9"/>
     </row>
     <row r="16" spans="1:27">
-      <c r="A16" s="10"/>
-      <c r="B16" s="10"/>
-      <c r="C16" s="10"/>
-      <c r="D16" s="10"/>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
-      <c r="K16" s="10"/>
-      <c r="L16" s="10"/>
-      <c r="M16" s="10"/>
-      <c r="N16" s="10"/>
-      <c r="O16" s="10"/>
-      <c r="P16" s="10"/>
-      <c r="Q16" s="10"/>
-      <c r="R16" s="10"/>
-      <c r="S16" s="10"/>
-      <c r="T16" s="10"/>
-      <c r="U16" s="10"/>
-      <c r="V16" s="10"/>
-      <c r="W16" s="10"/>
-      <c r="X16" s="10"/>
-      <c r="Y16" s="10"/>
-      <c r="Z16" s="10"/>
-      <c r="AA16" s="10"/>
+      <c r="A16" s="9"/>
+      <c r="B16" s="9"/>
+      <c r="C16" s="9"/>
+      <c r="D16" s="9"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="9"/>
+      <c r="G16" s="9"/>
+      <c r="H16" s="9"/>
+      <c r="I16" s="9"/>
+      <c r="J16" s="9"/>
+      <c r="K16" s="9"/>
+      <c r="L16" s="9"/>
+      <c r="M16" s="9"/>
+      <c r="N16" s="9"/>
+      <c r="O16" s="9"/>
+      <c r="P16" s="9"/>
+      <c r="Q16" s="9"/>
+      <c r="R16" s="9"/>
+      <c r="S16" s="9"/>
+      <c r="T16" s="9"/>
+      <c r="U16" s="9"/>
+      <c r="V16" s="9"/>
+      <c r="W16" s="9"/>
+      <c r="X16" s="9"/>
+      <c r="Y16" s="9"/>
+      <c r="Z16" s="9"/>
+      <c r="AA16" s="9"/>
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B1:N1"/>
@@ -1240,7 +1220,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1267,25 +1246,25 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12" t="s">
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11" t="s">
         <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:8">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -1304,23 +1283,23 @@
       <c r="G2" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="H2" s="12"/>
+      <c r="H2" s="11"/>
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2"/>
@@ -1330,17 +1309,17 @@
       <c r="A4" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B4" s="10" t="s">
+      <c r="B4" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2"/>
-      <c r="E4" s="10" t="s">
+      <c r="E4" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="G4" s="2"/>
@@ -1389,10 +1368,10 @@
       <c r="A2" t="s">
         <v>23</v>
       </c>
-      <c r="B2" s="10" t="s">
+      <c r="B2" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="9" t="s">
         <v>55</v>
       </c>
       <c r="D2" t="s">
@@ -1403,10 +1382,10 @@
       <c r="A3" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="10" t="s">
+      <c r="C3" s="9" t="s">
         <v>57</v>
       </c>
       <c r="D3" t="s">
@@ -1447,202 +1426,202 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:37">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
-      <c r="K1" s="12"/>
-      <c r="L1" s="12"/>
-      <c r="M1" s="12"/>
-      <c r="N1" s="12"/>
-      <c r="O1" s="12"/>
-      <c r="P1" s="12"/>
-      <c r="Q1" s="12"/>
-      <c r="R1" s="12"/>
-      <c r="S1" s="12"/>
-      <c r="T1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
+      <c r="J1" s="11"/>
+      <c r="K1" s="11"/>
+      <c r="L1" s="11"/>
+      <c r="M1" s="11"/>
+      <c r="N1" s="11"/>
+      <c r="O1" s="11"/>
+      <c r="P1" s="11"/>
+      <c r="Q1" s="11"/>
+      <c r="R1" s="11"/>
+      <c r="S1" s="11"/>
+      <c r="T1" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="U1" s="12"/>
-      <c r="V1" s="12"/>
-      <c r="W1" s="12"/>
-      <c r="X1" s="12"/>
-      <c r="Y1" s="12"/>
-      <c r="Z1" s="12"/>
-      <c r="AA1" s="12"/>
-      <c r="AB1" s="12"/>
-      <c r="AC1" s="12"/>
-      <c r="AD1" s="12"/>
-      <c r="AE1" s="12"/>
-      <c r="AF1" s="12"/>
-      <c r="AG1" s="12"/>
-      <c r="AH1" s="12"/>
-      <c r="AI1" s="12"/>
-      <c r="AJ1" s="12"/>
-      <c r="AK1" s="12"/>
+      <c r="U1" s="11"/>
+      <c r="V1" s="11"/>
+      <c r="W1" s="11"/>
+      <c r="X1" s="11"/>
+      <c r="Y1" s="11"/>
+      <c r="Z1" s="11"/>
+      <c r="AA1" s="11"/>
+      <c r="AB1" s="11"/>
+      <c r="AC1" s="11"/>
+      <c r="AD1" s="11"/>
+      <c r="AE1" s="11"/>
+      <c r="AF1" s="11"/>
+      <c r="AG1" s="11"/>
+      <c r="AH1" s="11"/>
+      <c r="AI1" s="11"/>
+      <c r="AJ1" s="11"/>
+      <c r="AK1" s="11"/>
     </row>
     <row r="2" spans="1:37">
-      <c r="A2" s="12"/>
-      <c r="B2" s="12" t="s">
+      <c r="A2" s="11"/>
+      <c r="B2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C2" s="12" t="s">
+      <c r="C2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="D2" s="12" t="s">
+      <c r="D2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="E2" s="12" t="s">
+      <c r="E2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="F2" s="12" t="s">
+      <c r="F2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="G2" s="12" t="s">
+      <c r="G2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="H2" s="12" t="s">
+      <c r="H2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="I2" s="12" t="s">
+      <c r="I2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="J2" s="12"/>
-      <c r="K2" s="12"/>
-      <c r="L2" s="12"/>
-      <c r="M2" s="12" t="s">
+      <c r="J2" s="11"/>
+      <c r="K2" s="11"/>
+      <c r="L2" s="11"/>
+      <c r="M2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="12"/>
-      <c r="O2" s="12"/>
-      <c r="P2" s="12"/>
-      <c r="Q2" s="12" t="s">
+      <c r="N2" s="11"/>
+      <c r="O2" s="11"/>
+      <c r="P2" s="11"/>
+      <c r="Q2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="R2" s="12" t="s">
+      <c r="R2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="S2" s="12" t="s">
+      <c r="S2" s="11" t="s">
         <v>37</v>
       </c>
-      <c r="T2" s="12" t="s">
+      <c r="T2" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="U2" s="12" t="s">
+      <c r="U2" s="11" t="s">
         <v>4</v>
       </c>
-      <c r="V2" s="12" t="s">
+      <c r="V2" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="W2" s="12" t="s">
+      <c r="W2" s="11" t="s">
         <v>32</v>
       </c>
-      <c r="X2" s="12" t="s">
+      <c r="X2" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="Y2" s="12" t="s">
+      <c r="Y2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="Z2" s="12" t="s">
+      <c r="Z2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AA2" s="12" t="s">
+      <c r="AA2" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="AB2" s="12"/>
-      <c r="AC2" s="12"/>
-      <c r="AD2" s="12"/>
-      <c r="AE2" s="12" t="s">
+      <c r="AB2" s="11"/>
+      <c r="AC2" s="11"/>
+      <c r="AD2" s="11"/>
+      <c r="AE2" s="11" t="s">
         <v>34</v>
       </c>
-      <c r="AF2" s="12"/>
-      <c r="AG2" s="12"/>
-      <c r="AH2" s="12"/>
-      <c r="AI2" s="12" t="s">
+      <c r="AF2" s="11"/>
+      <c r="AG2" s="11"/>
+      <c r="AH2" s="11"/>
+      <c r="AI2" s="11" t="s">
         <v>35</v>
       </c>
-      <c r="AJ2" s="12" t="s">
+      <c r="AJ2" s="11" t="s">
         <v>36</v>
       </c>
-      <c r="AK2" s="12" t="s">
+      <c r="AK2" s="11" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:37">
-      <c r="A3" s="12"/>
-      <c r="B3" s="12"/>
-      <c r="C3" s="12"/>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="12"/>
-      <c r="G3" s="12"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12" t="s">
+      <c r="A3" s="11"/>
+      <c r="B3" s="11"/>
+      <c r="C3" s="11"/>
+      <c r="D3" s="11"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="11"/>
+      <c r="G3" s="11"/>
+      <c r="H3" s="11"/>
+      <c r="I3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="J3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="K3" s="12"/>
-      <c r="L3" s="12"/>
-      <c r="M3" s="12" t="s">
+      <c r="K3" s="11"/>
+      <c r="L3" s="11"/>
+      <c r="M3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="N3" s="12" t="s">
+      <c r="N3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="O3" s="12"/>
-      <c r="P3" s="12"/>
-      <c r="Q3" s="12"/>
-      <c r="R3" s="12"/>
-      <c r="S3" s="12"/>
-      <c r="T3" s="12"/>
-      <c r="U3" s="12"/>
-      <c r="V3" s="12"/>
-      <c r="W3" s="12"/>
-      <c r="X3" s="12"/>
-      <c r="Y3" s="12"/>
-      <c r="Z3" s="12"/>
-      <c r="AA3" s="12" t="s">
+      <c r="O3" s="11"/>
+      <c r="P3" s="11"/>
+      <c r="Q3" s="11"/>
+      <c r="R3" s="11"/>
+      <c r="S3" s="11"/>
+      <c r="T3" s="11"/>
+      <c r="U3" s="11"/>
+      <c r="V3" s="11"/>
+      <c r="W3" s="11"/>
+      <c r="X3" s="11"/>
+      <c r="Y3" s="11"/>
+      <c r="Z3" s="11"/>
+      <c r="AA3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AB3" s="12" t="s">
+      <c r="AB3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AC3" s="12"/>
-      <c r="AD3" s="12"/>
-      <c r="AE3" s="12" t="s">
+      <c r="AC3" s="11"/>
+      <c r="AD3" s="11"/>
+      <c r="AE3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="AF3" s="12" t="s">
+      <c r="AF3" s="11" t="s">
         <v>39</v>
       </c>
-      <c r="AG3" s="12"/>
-      <c r="AH3" s="12"/>
-      <c r="AI3" s="12"/>
-      <c r="AJ3" s="12"/>
-      <c r="AK3" s="12"/>
+      <c r="AG3" s="11"/>
+      <c r="AH3" s="11"/>
+      <c r="AI3" s="11"/>
+      <c r="AJ3" s="11"/>
+      <c r="AK3" s="11"/>
     </row>
     <row r="4" spans="1:37">
-      <c r="A4" s="12"/>
-      <c r="B4" s="12"/>
-      <c r="C4" s="12"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="12"/>
-      <c r="G4" s="12"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
+      <c r="A4" s="11"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="11"/>
+      <c r="D4" s="11"/>
+      <c r="E4" s="11"/>
+      <c r="F4" s="11"/>
+      <c r="G4" s="11"/>
+      <c r="H4" s="11"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1652,7 +1631,7 @@
       <c r="L4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="M4" s="12"/>
+      <c r="M4" s="11"/>
       <c r="N4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1662,17 +1641,17 @@
       <c r="P4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="Q4" s="12"/>
-      <c r="R4" s="12"/>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="12"/>
-      <c r="V4" s="12"/>
-      <c r="W4" s="12"/>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12"/>
-      <c r="Z4" s="12"/>
-      <c r="AA4" s="12"/>
+      <c r="Q4" s="11"/>
+      <c r="R4" s="11"/>
+      <c r="S4" s="11"/>
+      <c r="T4" s="11"/>
+      <c r="U4" s="11"/>
+      <c r="V4" s="11"/>
+      <c r="W4" s="11"/>
+      <c r="X4" s="11"/>
+      <c r="Y4" s="11"/>
+      <c r="Z4" s="11"/>
+      <c r="AA4" s="11"/>
       <c r="AB4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1682,7 +1661,7 @@
       <c r="AD4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AE4" s="12"/>
+      <c r="AE4" s="11"/>
       <c r="AF4" s="1" t="s">
         <v>40</v>
       </c>
@@ -1692,30 +1671,30 @@
       <c r="AH4" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="AI4" s="12"/>
-      <c r="AJ4" s="12"/>
-      <c r="AK4" s="12"/>
+      <c r="AI4" s="11"/>
+      <c r="AJ4" s="11"/>
+      <c r="AK4" s="11"/>
     </row>
     <row r="5" spans="1:37">
       <c r="A5" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="B5" s="10" t="s">
+      <c r="B5" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C5" s="5" t="s">
+      <c r="C5" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D5" s="5" t="s">
+      <c r="D5" s="4" t="s">
         <v>59</v>
       </c>
-      <c r="E5" s="5" t="s">
+      <c r="E5" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="F5" s="5" t="s">
+      <c r="F5" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="6"/>
+      <c r="G5" s="5"/>
       <c r="H5" s="2"/>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -1729,11 +1708,11 @@
       <c r="R5" s="2"/>
       <c r="S5" s="2"/>
       <c r="T5" s="2"/>
-      <c r="U5" s="5"/>
-      <c r="V5" s="5"/>
-      <c r="W5" s="5"/>
-      <c r="X5" s="5"/>
-      <c r="Y5" s="6"/>
+      <c r="U5" s="4"/>
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+      <c r="X5" s="4"/>
+      <c r="Y5" s="5"/>
       <c r="Z5" s="2"/>
       <c r="AA5" s="2"/>
       <c r="AB5" s="2"/>
@@ -1749,12 +1728,12 @@
     </row>
     <row r="6" spans="1:37">
       <c r="A6" s="2"/>
-      <c r="B6" s="5"/>
-      <c r="C6" s="5"/>
-      <c r="D6" s="5"/>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="6"/>
+      <c r="B6" s="4"/>
+      <c r="C6" s="4"/>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5"/>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
       <c r="J6" s="2"/>
@@ -1768,11 +1747,11 @@
       <c r="R6" s="2"/>
       <c r="S6" s="2"/>
       <c r="T6" s="2"/>
-      <c r="U6" s="5"/>
-      <c r="V6" s="5"/>
-      <c r="W6" s="5"/>
-      <c r="X6" s="5"/>
-      <c r="Y6" s="6"/>
+      <c r="U6" s="4"/>
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+      <c r="X6" s="4"/>
+      <c r="Y6" s="5"/>
       <c r="Z6" s="2"/>
       <c r="AA6" s="2"/>
       <c r="AB6" s="2"/>
@@ -1788,12 +1767,12 @@
     </row>
     <row r="7" spans="1:37">
       <c r="A7" s="2"/>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="D7" s="5"/>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="6"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="5"/>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
       <c r="J7" s="2"/>
@@ -1807,11 +1786,11 @@
       <c r="R7" s="2"/>
       <c r="S7" s="2"/>
       <c r="T7" s="2"/>
-      <c r="U7" s="5"/>
-      <c r="V7" s="5"/>
-      <c r="W7" s="5"/>
-      <c r="X7" s="5"/>
-      <c r="Y7" s="6"/>
+      <c r="U7" s="4"/>
+      <c r="V7" s="4"/>
+      <c r="W7" s="4"/>
+      <c r="X7" s="4"/>
+      <c r="Y7" s="5"/>
       <c r="Z7" s="2"/>
       <c r="AA7" s="2"/>
       <c r="AB7" s="2"/>
@@ -1827,12 +1806,12 @@
     </row>
     <row r="8" spans="1:37">
       <c r="A8" s="2"/>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="6"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="5"/>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
       <c r="J8" s="2"/>
@@ -1846,11 +1825,11 @@
       <c r="R8" s="2"/>
       <c r="S8" s="2"/>
       <c r="T8" s="2"/>
-      <c r="U8" s="5"/>
-      <c r="V8" s="5"/>
-      <c r="W8" s="5"/>
-      <c r="X8" s="5"/>
-      <c r="Y8" s="6"/>
+      <c r="U8" s="4"/>
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+      <c r="X8" s="4"/>
+      <c r="Y8" s="5"/>
       <c r="Z8" s="2"/>
       <c r="AA8" s="2"/>
       <c r="AB8" s="2"/>
@@ -1866,12 +1845,12 @@
     </row>
     <row r="9" spans="1:37">
       <c r="A9" s="2"/>
-      <c r="B9" s="5"/>
-      <c r="C9" s="5"/>
-      <c r="D9" s="5"/>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="6"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="5"/>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
       <c r="J9" s="2"/>
@@ -1885,11 +1864,11 @@
       <c r="R9" s="2"/>
       <c r="S9" s="2"/>
       <c r="T9" s="2"/>
-      <c r="U9" s="5"/>
-      <c r="V9" s="5"/>
-      <c r="W9" s="5"/>
-      <c r="X9" s="5"/>
-      <c r="Y9" s="6"/>
+      <c r="U9" s="4"/>
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+      <c r="X9" s="4"/>
+      <c r="Y9" s="5"/>
       <c r="Z9" s="2"/>
       <c r="AA9" s="2"/>
       <c r="AB9" s="2"/>
@@ -1905,12 +1884,12 @@
     </row>
     <row r="10" spans="1:37">
       <c r="A10" s="2"/>
-      <c r="B10" s="5"/>
-      <c r="C10" s="5"/>
-      <c r="D10" s="5"/>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="6"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="5"/>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
       <c r="J10" s="2"/>
@@ -1924,11 +1903,11 @@
       <c r="R10" s="2"/>
       <c r="S10" s="2"/>
       <c r="T10" s="2"/>
-      <c r="U10" s="5"/>
-      <c r="V10" s="5"/>
-      <c r="W10" s="5"/>
-      <c r="X10" s="5"/>
-      <c r="Y10" s="6"/>
+      <c r="U10" s="4"/>
+      <c r="V10" s="4"/>
+      <c r="W10" s="4"/>
+      <c r="X10" s="4"/>
+      <c r="Y10" s="5"/>
       <c r="Z10" s="2"/>
       <c r="AA10" s="2"/>
       <c r="AB10" s="2"/>
@@ -1944,12 +1923,12 @@
     </row>
     <row r="11" spans="1:37">
       <c r="A11" s="2"/>
-      <c r="B11" s="5"/>
-      <c r="C11" s="5"/>
-      <c r="D11" s="5"/>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="6"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="5"/>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
       <c r="J11" s="2"/>
@@ -1964,10 +1943,10 @@
       <c r="S11" s="2"/>
       <c r="T11" s="2"/>
       <c r="U11" s="3"/>
-      <c r="V11" s="5"/>
-      <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
-      <c r="Y11" s="6"/>
+      <c r="V11" s="4"/>
+      <c r="W11" s="4"/>
+      <c r="X11" s="4"/>
+      <c r="Y11" s="5"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
       <c r="AB11" s="2"/>
@@ -1983,12 +1962,12 @@
     </row>
     <row r="12" spans="1:37">
       <c r="A12" s="2"/>
-      <c r="B12" s="5"/>
-      <c r="C12" s="5"/>
-      <c r="D12" s="5"/>
-      <c r="E12" s="5"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="6"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="6"/>
+      <c r="G12" s="5"/>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
       <c r="J12" s="2"/>
@@ -2003,10 +1982,10 @@
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
       <c r="U12" s="3"/>
-      <c r="V12" s="5"/>
-      <c r="W12" s="5"/>
-      <c r="X12" s="7"/>
-      <c r="Y12" s="6"/>
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+      <c r="X12" s="6"/>
+      <c r="Y12" s="5"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
       <c r="AB12" s="2"/>
@@ -2022,12 +2001,12 @@
     </row>
     <row r="13" spans="1:37">
       <c r="A13" s="2"/>
-      <c r="B13" s="5"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="5"/>
-      <c r="G13" s="6"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="5"/>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
@@ -2041,11 +2020,11 @@
       <c r="R13" s="2"/>
       <c r="S13" s="2"/>
       <c r="T13" s="2"/>
-      <c r="U13" s="5"/>
-      <c r="V13" s="5"/>
-      <c r="W13" s="5"/>
-      <c r="X13" s="5"/>
-      <c r="Y13" s="6"/>
+      <c r="U13" s="4"/>
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+      <c r="X13" s="4"/>
+      <c r="Y13" s="5"/>
       <c r="Z13" s="2"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
@@ -2061,13 +2040,13 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="2"/>
-      <c r="B14" s="5"/>
-      <c r="C14" s="5"/>
-      <c r="D14" s="5"/>
-      <c r="E14" s="5"/>
-      <c r="F14" s="5"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="8"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="5"/>
+      <c r="H14" s="7"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2080,12 +2059,12 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="5"/>
-      <c r="V14" s="5"/>
-      <c r="W14" s="5"/>
-      <c r="X14" s="5"/>
-      <c r="Y14" s="6"/>
-      <c r="Z14" s="8"/>
+      <c r="U14" s="4"/>
+      <c r="V14" s="4"/>
+      <c r="W14" s="4"/>
+      <c r="X14" s="4"/>
+      <c r="Y14" s="5"/>
+      <c r="Z14" s="7"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -2100,12 +2079,12 @@
     </row>
     <row r="15" spans="1:37">
       <c r="A15" s="2"/>
-      <c r="B15" s="5"/>
-      <c r="C15" s="5"/>
-      <c r="D15" s="5"/>
-      <c r="E15" s="5"/>
-      <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="5"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2120,10 +2099,10 @@
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
       <c r="U15" s="3"/>
-      <c r="V15" s="5"/>
-      <c r="W15" s="5"/>
-      <c r="X15" s="5"/>
-      <c r="Y15" s="6"/>
+      <c r="V15" s="4"/>
+      <c r="W15" s="4"/>
+      <c r="X15" s="4"/>
+      <c r="Y15" s="5"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -2139,12 +2118,12 @@
     </row>
     <row r="16" spans="1:37">
       <c r="A16" s="2"/>
-      <c r="B16" s="5"/>
-      <c r="C16" s="5"/>
-      <c r="D16" s="5"/>
-      <c r="E16" s="5"/>
-      <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="7"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2158,11 +2137,11 @@
       <c r="R16" s="2"/>
       <c r="S16" s="2"/>
       <c r="T16" s="2"/>
-      <c r="U16" s="5"/>
-      <c r="V16" s="5"/>
-      <c r="W16" s="5"/>
-      <c r="X16" s="5"/>
-      <c r="Y16" s="8"/>
+      <c r="U16" s="4"/>
+      <c r="V16" s="4"/>
+      <c r="W16" s="4"/>
+      <c r="X16" s="4"/>
+      <c r="Y16" s="7"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -2178,12 +2157,12 @@
     </row>
     <row r="17" spans="1:37">
       <c r="A17" s="2"/>
-      <c r="B17" s="5"/>
-      <c r="C17" s="5"/>
-      <c r="D17" s="5"/>
-      <c r="E17" s="5"/>
-      <c r="F17" s="5"/>
-      <c r="G17" s="9"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="8"/>
       <c r="H17" s="2"/>
       <c r="I17" s="2"/>
       <c r="J17" s="2"/>
@@ -2197,11 +2176,11 @@
       <c r="R17" s="2"/>
       <c r="S17" s="2"/>
       <c r="T17" s="2"/>
-      <c r="U17" s="5"/>
-      <c r="V17" s="5"/>
-      <c r="W17" s="5"/>
-      <c r="X17" s="5"/>
-      <c r="Y17" s="9"/>
+      <c r="U17" s="4"/>
+      <c r="V17" s="4"/>
+      <c r="W17" s="4"/>
+      <c r="X17" s="4"/>
+      <c r="Y17" s="8"/>
       <c r="Z17" s="2"/>
       <c r="AA17" s="2"/>
       <c r="AB17" s="2"/>
@@ -2217,12 +2196,12 @@
     </row>
     <row r="18" spans="1:37">
       <c r="A18" s="2"/>
-      <c r="B18" s="5"/>
-      <c r="C18" s="5"/>
-      <c r="D18" s="5"/>
-      <c r="E18" s="5"/>
-      <c r="F18" s="5"/>
-      <c r="G18" s="9"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="8"/>
       <c r="H18" s="2"/>
       <c r="I18" s="2"/>
       <c r="J18" s="2"/>
@@ -2236,11 +2215,11 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="5"/>
-      <c r="V18" s="5"/>
-      <c r="W18" s="5"/>
-      <c r="X18" s="5"/>
-      <c r="Y18" s="9"/>
+      <c r="U18" s="4"/>
+      <c r="V18" s="4"/>
+      <c r="W18" s="4"/>
+      <c r="X18" s="4"/>
+      <c r="Y18" s="8"/>
       <c r="Z18" s="2"/>
       <c r="AA18" s="2"/>
       <c r="AB18" s="2"/>
@@ -2256,12 +2235,12 @@
     </row>
     <row r="19" spans="1:37">
       <c r="A19" s="2"/>
-      <c r="B19" s="5"/>
-      <c r="C19" s="5"/>
-      <c r="D19" s="5"/>
-      <c r="E19" s="5"/>
-      <c r="F19" s="5"/>
-      <c r="G19" s="9"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="8"/>
       <c r="H19" s="2"/>
       <c r="I19" s="2"/>
       <c r="J19" s="2"/>
@@ -2276,10 +2255,10 @@
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
       <c r="U19" s="3"/>
-      <c r="V19" s="5"/>
-      <c r="W19" s="5"/>
-      <c r="X19" s="5"/>
-      <c r="Y19" s="9"/>
+      <c r="V19" s="4"/>
+      <c r="W19" s="4"/>
+      <c r="X19" s="4"/>
+      <c r="Y19" s="8"/>
       <c r="Z19" s="2"/>
       <c r="AA19" s="2"/>
       <c r="AB19" s="2"/>
@@ -2295,12 +2274,12 @@
     </row>
     <row r="20" spans="1:37">
       <c r="A20" s="2"/>
-      <c r="B20" s="5"/>
-      <c r="C20" s="5"/>
-      <c r="D20" s="5"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
-      <c r="G20" s="9"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="8"/>
       <c r="H20" s="2"/>
       <c r="I20" s="2"/>
       <c r="J20" s="2"/>
@@ -2314,11 +2293,11 @@
       <c r="R20" s="2"/>
       <c r="S20" s="2"/>
       <c r="T20" s="2"/>
-      <c r="U20" s="5"/>
-      <c r="V20" s="5"/>
-      <c r="W20" s="5"/>
-      <c r="X20" s="5"/>
-      <c r="Y20" s="9"/>
+      <c r="U20" s="4"/>
+      <c r="V20" s="4"/>
+      <c r="W20" s="4"/>
+      <c r="X20" s="4"/>
+      <c r="Y20" s="8"/>
       <c r="Z20" s="2"/>
       <c r="AA20" s="2"/>
       <c r="AB20" s="2"/>
@@ -2334,12 +2313,12 @@
     </row>
     <row r="21" spans="1:37" ht="18" customHeight="1">
       <c r="A21" s="2"/>
-      <c r="B21" s="5"/>
-      <c r="C21" s="5"/>
-      <c r="D21" s="5"/>
-      <c r="E21" s="5"/>
-      <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2353,11 +2332,11 @@
       <c r="R21" s="2"/>
       <c r="S21" s="2"/>
       <c r="T21" s="2"/>
-      <c r="U21" s="5"/>
-      <c r="V21" s="5"/>
-      <c r="W21" s="5"/>
-      <c r="X21" s="5"/>
-      <c r="Y21" s="9"/>
+      <c r="U21" s="4"/>
+      <c r="V21" s="4"/>
+      <c r="W21" s="4"/>
+      <c r="X21" s="4"/>
+      <c r="Y21" s="8"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -2373,12 +2352,12 @@
     </row>
     <row r="22" spans="1:37">
       <c r="A22" s="2"/>
-      <c r="B22" s="5"/>
-      <c r="C22" s="5"/>
-      <c r="D22" s="5"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="7"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2392,11 +2371,11 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="5"/>
-      <c r="V22" s="5"/>
-      <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="8"/>
+      <c r="U22" s="4"/>
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+      <c r="X22" s="4"/>
+      <c r="Y22" s="7"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -2412,12 +2391,12 @@
     </row>
     <row r="23" spans="1:37">
       <c r="A23" s="2"/>
-      <c r="B23" s="5"/>
-      <c r="C23" s="5"/>
-      <c r="D23" s="5"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="6"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="6"/>
+      <c r="G23" s="5"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
       <c r="J23" s="2"/>
@@ -2432,10 +2411,10 @@
       <c r="S23" s="2"/>
       <c r="T23" s="2"/>
       <c r="U23" s="1"/>
-      <c r="V23" s="5"/>
-      <c r="W23" s="5"/>
-      <c r="X23" s="7"/>
-      <c r="Y23" s="6"/>
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+      <c r="X23" s="6"/>
+      <c r="Y23" s="5"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
       <c r="AB23" s="2"/>
@@ -2451,12 +2430,12 @@
     </row>
     <row r="24" spans="1:37">
       <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="5"/>
       <c r="H24" s="2"/>
       <c r="I24" s="2"/>
       <c r="J24" s="2"/>
@@ -2471,10 +2450,10 @@
       <c r="S24" s="2"/>
       <c r="T24" s="2"/>
       <c r="U24" s="1"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="6"/>
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+      <c r="X24" s="4"/>
+      <c r="Y24" s="5"/>
       <c r="Z24" s="2"/>
       <c r="AA24" s="2"/>
       <c r="AB24" s="2"/>
@@ -2490,6 +2469,25 @@
     </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="T1:AK1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
@@ -2505,26 +2503,7 @@
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B1:S1"/>
     <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2550,22 +2529,22 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="F1" s="12"/>
-      <c r="G1" s="12"/>
+      <c r="F1" s="11"/>
+      <c r="G1" s="11"/>
     </row>
     <row r="2" spans="1:7">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>
@@ -2589,17 +2568,17 @@
       <c r="A3" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="10" t="s">
+      <c r="B3" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2"/>
-      <c r="E3" s="10" t="s">
+      <c r="E3" s="9" t="s">
         <v>56</v>
       </c>
-      <c r="F3" s="5" t="s">
+      <c r="F3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="G3" s="2"/>
@@ -2619,130 +2598,11 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
-  <dimension ref="A1:O3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I43" sqref="I43"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:15">
-      <c r="A1" s="13" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="14"/>
-      <c r="D1" s="14"/>
-      <c r="E1" s="14"/>
-      <c r="F1" s="14"/>
-      <c r="G1" s="14"/>
-      <c r="H1" s="14"/>
-      <c r="I1" s="13" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" s="14"/>
-      <c r="K1" s="14"/>
-      <c r="L1" s="14"/>
-      <c r="M1" s="14"/>
-      <c r="N1" s="14"/>
-      <c r="O1" s="14"/>
-    </row>
-    <row r="2" spans="1:15">
-      <c r="A2" s="14"/>
-      <c r="B2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="E2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="F2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="G2" s="14"/>
-      <c r="H2" s="14"/>
-      <c r="I2" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="J2" s="13" t="s">
-        <v>21</v>
-      </c>
-      <c r="K2" s="13" t="s">
-        <v>31</v>
-      </c>
-      <c r="L2" s="13" t="s">
-        <v>38</v>
-      </c>
-      <c r="M2" s="13" t="s">
-        <v>39</v>
-      </c>
-      <c r="N2" s="14"/>
-      <c r="O2" s="14"/>
-    </row>
-    <row r="3" spans="1:15">
-      <c r="A3" s="14"/>
-      <c r="B3" s="14"/>
-      <c r="C3" s="14"/>
-      <c r="D3" s="14"/>
-      <c r="E3" s="14"/>
-      <c r="F3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="G3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="H3" s="4" t="s">
-        <v>42</v>
-      </c>
-      <c r="I3" s="14"/>
-      <c r="J3" s="14"/>
-      <c r="K3" s="14"/>
-      <c r="L3" s="14"/>
-      <c r="M3" s="4" t="s">
-        <v>40</v>
-      </c>
-      <c r="N3" s="4" t="s">
-        <v>41</v>
-      </c>
-      <c r="O3" s="4" t="s">
-        <v>42</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="13">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="F2:H2"/>
-    <mergeCell ref="M2:O2"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="I2:I3"/>
-    <mergeCell ref="J2:J3"/>
-    <mergeCell ref="K2:K3"/>
-    <mergeCell ref="L2:L3"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
@@ -2752,35 +2612,141 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:19">
-      <c r="A1" s="11" t="s">
+      <c r="A1" s="10" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="11" t="s">
+      <c r="B1" s="10" t="s">
         <v>45</v>
       </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="11"/>
+      <c r="A2" s="10"/>
+      <c r="B2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="H2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="I2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="J2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="R2" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="S2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="I1:O1"/>
+    <mergeCell ref="P1:R1"/>
+    <mergeCell ref="A1:A2"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
+  <dimension ref="A1:S2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N38" sqref="N38"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1" spans="1:19">
+      <c r="A1" s="10" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="10" t="s">
+        <v>45</v>
+      </c>
+      <c r="C1" s="10"/>
+      <c r="D1" s="10"/>
+      <c r="E1" s="10"/>
+      <c r="F1" s="10"/>
+      <c r="G1" s="10"/>
+      <c r="H1" s="10"/>
+      <c r="I1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="J1" s="10"/>
+      <c r="K1" s="10"/>
+      <c r="L1" s="10"/>
+      <c r="M1" s="10"/>
+      <c r="N1" s="10"/>
+      <c r="O1" s="10"/>
+      <c r="P1" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q1" s="10"/>
+      <c r="R1" s="10"/>
+    </row>
+    <row r="2" spans="1:19">
+      <c r="A2" s="10"/>
       <c r="B2" s="3" t="s">
         <v>3</v>
       </c>
@@ -2848,116 +2814,10 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:S2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:19">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>45</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11"/>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="J1" s="11"/>
-      <c r="K1" s="11"/>
-      <c r="L1" s="11"/>
-      <c r="M1" s="11"/>
-      <c r="N1" s="11"/>
-      <c r="O1" s="11"/>
-      <c r="P1" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q1" s="11"/>
-      <c r="R1" s="11"/>
-    </row>
-    <row r="2" spans="1:19">
-      <c r="A2" s="11"/>
-      <c r="B2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="G2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="H2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>51</v>
-      </c>
-      <c r="R2" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="S2" t="s">
-        <v>50</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="I1:O1"/>
-    <mergeCell ref="P1:R1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:I12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J29" sqref="J29"/>
     </sheetView>
   </sheetViews>
@@ -2973,24 +2833,24 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9">
-      <c r="A1" s="12" t="s">
+      <c r="A1" s="11" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="12" t="s">
+      <c r="B1" s="11" t="s">
         <v>18</v>
       </c>
-      <c r="C1" s="12"/>
-      <c r="D1" s="12"/>
-      <c r="E1" s="12"/>
-      <c r="F1" s="12" t="s">
+      <c r="C1" s="11"/>
+      <c r="D1" s="11"/>
+      <c r="E1" s="11"/>
+      <c r="F1" s="11" t="s">
         <v>19</v>
       </c>
-      <c r="G1" s="12"/>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
+      <c r="G1" s="11"/>
+      <c r="H1" s="11"/>
+      <c r="I1" s="11"/>
     </row>
     <row r="2" spans="1:9">
-      <c r="A2" s="12"/>
+      <c r="A2" s="11"/>
       <c r="B2" s="1" t="s">
         <v>3</v>
       </c>

--- a/pre_post_Meralco_test_Lab.xlsx
+++ b/pre_post_Meralco_test_Lab.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbinguna\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://cisco-my.sharepoint.com/personal/rbinguna_cisco_com/Documents/Documents/GitHub/network-automation-lab/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{06268BEB-DA2C-4736-9523-32A2B77A917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="13_ncr:1_{06268BEB-DA2C-4736-9523-32A2B77A917D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{33F971BA-633E-4BC6-A273-DBB02A96383E}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSL" sheetId="9" r:id="rId1"/>
@@ -20,7 +20,6 @@
     <sheet name="static-route-configuration" sheetId="5" r:id="rId5"/>
     <sheet name="BGP_CE" sheetId="19" r:id="rId6"/>
     <sheet name="BGP_RR" sheetId="20" r:id="rId7"/>
-    <sheet name="VLAN" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="60">
   <si>
     <t>Client Node Name</t>
   </si>
@@ -196,12 +195,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Vlan</t>
-  </si>
-  <si>
-    <t>Mac Count</t>
   </si>
   <si>
     <t>UPE21</t>
@@ -799,7 +792,7 @@
     <row r="4" spans="1:27">
       <c r="A4" s="9"/>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="9" t="s">
         <v>16</v>
@@ -832,10 +825,10 @@
     <row r="5" spans="1:27">
       <c r="A5" s="9"/>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="9" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="9"/>
       <c r="E5" s="9"/>
@@ -865,7 +858,7 @@
     <row r="6" spans="1:27">
       <c r="A6" s="9"/>
       <c r="B6" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C6" s="9" t="s">
         <v>17</v>
@@ -900,10 +893,10 @@
     <row r="7" spans="1:27">
       <c r="A7" s="9"/>
       <c r="B7" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C7" s="9" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D7" s="9"/>
       <c r="E7" s="9"/>
@@ -1203,16 +1196,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -1290,14 +1283,14 @@
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>24</v>
@@ -1310,14 +1303,14 @@
         <v>23</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C4" s="4" t="s">
         <v>25</v>
       </c>
       <c r="D4" s="2"/>
       <c r="E4" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F4" s="4" t="s">
         <v>25</v>
@@ -1369,10 +1362,10 @@
         <v>23</v>
       </c>
       <c r="B2" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C2" s="9" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="D2" t="s">
         <v>29</v>
@@ -1383,10 +1376,10 @@
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C3" s="9" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D3" t="s">
         <v>30</v>
@@ -1680,16 +1673,16 @@
         <v>43</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="E5" s="4" t="s">
         <v>58</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="E5" s="4" t="s">
-        <v>60</v>
       </c>
       <c r="F5" s="4" t="s">
         <v>24</v>
@@ -2469,25 +2462,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="T1:AK1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
@@ -2504,6 +2478,25 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -2569,14 +2562,14 @@
         <v>23</v>
       </c>
       <c r="B3" s="9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C3" s="4" t="s">
         <v>24</v>
       </c>
       <c r="D3" s="2"/>
       <c r="E3" s="9" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F3" s="4" t="s">
         <v>24</v>
@@ -2601,7 +2594,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="U29" sqref="U29"/>
     </sheetView>
   </sheetViews>
@@ -2711,7 +2704,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="N38" sqref="N38"/>
     </sheetView>
   </sheetViews>
@@ -2813,189 +2806,6 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J29" sqref="J29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <cols>
-    <col min="1" max="1" width="18.85546875" customWidth="1"/>
-    <col min="2" max="2" width="13.140625" customWidth="1"/>
-    <col min="3" max="3" width="21.5703125" customWidth="1"/>
-    <col min="5" max="5" width="11" customWidth="1"/>
-    <col min="6" max="6" width="13.140625" customWidth="1"/>
-    <col min="7" max="7" width="21.5703125" customWidth="1"/>
-    <col min="9" max="9" width="11" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
 <file path=docMetadata/LabelInfo.xml><?xml version="1.0" encoding="utf-8"?>
 <clbl:labelList xmlns:clbl="http://schemas.microsoft.com/office/2020/mipLabelMetadata">
   <clbl:label id="{c8f49a32-fde3-48a5-9266-b5b0972a22dc}" enabled="1" method="Standard" siteId="{5ae1af62-9505-4097-a69a-c1553ef7840e}" contentBits="2" removed="0"/>

--- a/pre_post_Meralco_test_Lab.xlsx
+++ b/pre_post_Meralco_test_Lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\GitHub\network-automation-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E3ECFD9-0EEF-4A9D-88F3-90BD58F70324}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5D4332-C308-4316-99C0-A79F4A451195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,6 @@
     <sheet name="static-route-configuration" sheetId="5" r:id="rId5"/>
     <sheet name="BGP_CE" sheetId="19" r:id="rId6"/>
     <sheet name="BGP_RR" sheetId="20" r:id="rId7"/>
-    <sheet name="VLAN" sheetId="21" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="316" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="88">
   <si>
     <t>Client Node Name</t>
   </si>
@@ -217,12 +216,6 @@
   </si>
   <si>
     <t>Status</t>
-  </si>
-  <si>
-    <t>Vlan</t>
-  </si>
-  <si>
-    <t>Mac Count</t>
   </si>
   <si>
     <t>172.21.21.101</t>
@@ -405,7 +398,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
@@ -430,7 +423,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1293,6 +1285,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
@@ -1309,7 +1302,6 @@
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
     <mergeCell ref="S2:S3"/>
-    <mergeCell ref="T2:T3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1455,7 +1447,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1467,8 +1459,8 @@
       <c r="A8" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B8" s="12" t="s">
-        <v>62</v>
+      <c r="B8" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C8" s="5" t="s">
         <v>27</v>
@@ -1483,8 +1475,8 @@
       <c r="A9" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="12" t="s">
-        <v>62</v>
+      <c r="B9" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C9" s="5" t="s">
         <v>29</v>
@@ -1499,11 +1491,11 @@
       <c r="A10" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="12" t="s">
-        <v>62</v>
+      <c r="B10" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1515,11 +1507,11 @@
       <c r="A11" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="B11" s="12" t="s">
-        <v>62</v>
+      <c r="B11" s="2" t="s">
+        <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1603,10 +1595,10 @@
         <v>26</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -1631,10 +1623,10 @@
         <v>26</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -1645,10 +1637,10 @@
         <v>26</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1659,10 +1651,10 @@
         <v>26</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1673,10 +1665,10 @@
         <v>26</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1687,10 +1679,10 @@
         <v>26</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
         <v>34</v>
@@ -1701,10 +1693,10 @@
         <v>26</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
         <v>34</v>
@@ -2016,7 +2008,7 @@
         <v>49</v>
       </c>
       <c r="H5" s="2" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="I5" s="2"/>
       <c r="J5" s="2"/>
@@ -2051,22 +2043,22 @@
     <row r="6" spans="1:37">
       <c r="A6" s="2"/>
       <c r="B6" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2105,19 +2097,19 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2153,22 +2145,22 @@
     <row r="8" spans="1:37">
       <c r="A8" s="2"/>
       <c r="B8" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>65</v>
-      </c>
       <c r="D8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2204,22 +2196,22 @@
     <row r="9" spans="1:37">
       <c r="A9" s="2"/>
       <c r="B9" s="5" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="C9" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>76</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>78</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>80</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2255,22 +2247,22 @@
     <row r="10" spans="1:37">
       <c r="A10" s="2"/>
       <c r="B10" s="5" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2306,22 +2298,22 @@
     <row r="11" spans="1:37">
       <c r="A11" s="2"/>
       <c r="B11" s="5" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2357,22 +2349,22 @@
     <row r="12" spans="1:37">
       <c r="A12" s="2"/>
       <c r="B12" s="5" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C12" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2408,22 +2400,22 @@
     <row r="13" spans="1:37">
       <c r="A13" s="2"/>
       <c r="B13" s="5" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C13" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H13" s="2"/>
       <c r="I13" s="2"/>
@@ -2459,22 +2451,22 @@
     <row r="14" spans="1:37">
       <c r="A14" s="2"/>
       <c r="B14" s="5" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C14" s="5" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D14" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E14" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="F14" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G14" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H14" s="8"/>
       <c r="I14" s="2"/>
@@ -2899,26 +2891,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="B1:S1"/>
     <mergeCell ref="T1:AK1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
@@ -2934,6 +2906,26 @@
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AE3:AE4"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3242,178 +3234,4 @@
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
-  <dimension ref="A1:I12"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B3" sqref="B3:H12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" s="11" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C1" s="11"/>
-      <c r="D1" s="11"/>
-      <c r="E1" s="11"/>
-      <c r="F1" s="11" t="s">
-        <v>22</v>
-      </c>
-      <c r="G1" s="11"/>
-      <c r="H1" s="11"/>
-      <c r="I1" s="11"/>
-    </row>
-    <row r="2" spans="1:9">
-      <c r="A2" s="11"/>
-      <c r="B2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>60</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>59</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" s="2"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="2"/>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-    </row>
-    <row r="4" spans="1:9">
-      <c r="A4" s="2"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-    </row>
-    <row r="5" spans="1:9">
-      <c r="A5" s="2"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-    </row>
-    <row r="6" spans="1:9">
-      <c r="A6" s="2"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-    </row>
-    <row r="7" spans="1:9">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-    </row>
-    <row r="8" spans="1:9">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-    </row>
-    <row r="9" spans="1:9">
-      <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="2"/>
-      <c r="H9" s="2"/>
-      <c r="I9" s="2"/>
-    </row>
-    <row r="10" spans="1:9">
-      <c r="A10" s="2"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="2"/>
-      <c r="D10" s="2"/>
-      <c r="E10" s="2"/>
-      <c r="F10" s="2"/>
-      <c r="G10" s="2"/>
-      <c r="H10" s="2"/>
-      <c r="I10" s="2"/>
-    </row>
-    <row r="11" spans="1:9">
-      <c r="A11" s="2"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="2"/>
-      <c r="D11" s="2"/>
-      <c r="E11" s="2"/>
-      <c r="F11" s="2"/>
-      <c r="G11" s="2"/>
-      <c r="H11" s="2"/>
-      <c r="I11" s="2"/>
-    </row>
-    <row r="12" spans="1:9">
-      <c r="A12" s="2"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="2"/>
-      <c r="D12" s="2"/>
-      <c r="E12" s="2"/>
-      <c r="F12" s="2"/>
-      <c r="G12" s="2"/>
-      <c r="H12" s="2"/>
-      <c r="I12" s="2"/>
-    </row>
-  </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="A1:A2"/>
-  </mergeCells>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/pre_post_Meralco_test_Lab.xlsx
+++ b/pre_post_Meralco_test_Lab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\GitHub\network-automation-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A5D4332-C308-4316-99C0-A79F4A451195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDED326-9216-4FA5-B0CA-5681FD982803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
   <si>
     <t>Client Node Name</t>
   </si>
@@ -236,9 +236,6 @@
     <t>SR201</t>
   </si>
   <si>
-    <t>SR202</t>
-  </si>
-  <si>
     <t>SR203</t>
   </si>
   <si>
@@ -263,9 +260,6 @@
     <t>172.1.10.203</t>
   </si>
   <si>
-    <t>172.1.10.202</t>
-  </si>
-  <si>
     <t>172.1.10.201</t>
   </si>
   <si>
@@ -291,9 +285,6 @@
   </si>
   <si>
     <t>172.10.1.201</t>
-  </si>
-  <si>
-    <t>172.10.1.202</t>
   </si>
   <si>
     <t>172.10.1.203</t>
@@ -1285,6 +1276,7 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B1:N1"/>
@@ -1301,7 +1293,6 @@
     <mergeCell ref="P2:P3"/>
     <mergeCell ref="Q2:Q3"/>
     <mergeCell ref="R2:R3"/>
-    <mergeCell ref="S2:S3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <headerFooter>
@@ -1447,7 +1438,7 @@
         <v>28</v>
       </c>
       <c r="C7" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
@@ -1495,7 +1486,7 @@
         <v>60</v>
       </c>
       <c r="C10" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
@@ -1511,7 +1502,7 @@
         <v>60</v>
       </c>
       <c r="C11" s="5" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
@@ -1537,10 +1528,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
-  <dimension ref="A1:D11"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C21" sqref="C21"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1598,7 +1589,7 @@
         <v>60</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="D4" t="s">
         <v>34</v>
@@ -1626,7 +1617,7 @@
         <v>62</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="D6" t="s">
         <v>34</v>
@@ -1640,7 +1631,7 @@
         <v>64</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="D7" t="s">
         <v>34</v>
@@ -1654,7 +1645,7 @@
         <v>65</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="D8" t="s">
         <v>34</v>
@@ -1668,7 +1659,7 @@
         <v>66</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D9" t="s">
         <v>34</v>
@@ -1682,23 +1673,9 @@
         <v>67</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="D10" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4">
-      <c r="A11" t="s">
-        <v>26</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="D11" t="s">
         <v>34</v>
       </c>
     </row>
@@ -1713,10 +1690,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
-  <dimension ref="A1:AK24"/>
+  <dimension ref="A1:AK23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6:G14"/>
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -2049,16 +2026,16 @@
         <v>63</v>
       </c>
       <c r="D6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E6" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F6" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G6" s="5" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H6" s="2"/>
       <c r="I6" s="2"/>
@@ -2100,16 +2077,16 @@
         <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E7" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F7" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G7" s="5" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="H7" s="2"/>
       <c r="I7" s="2"/>
@@ -2151,16 +2128,16 @@
         <v>63</v>
       </c>
       <c r="D8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E8" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F8" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G8" s="5" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="H8" s="2"/>
       <c r="I8" s="2"/>
@@ -2202,16 +2179,16 @@
         <v>63</v>
       </c>
       <c r="D9" s="5" t="s">
+        <v>74</v>
+      </c>
+      <c r="E9" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G9" s="5" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="H9" s="2"/>
       <c r="I9" s="2"/>
@@ -2253,16 +2230,16 @@
         <v>63</v>
       </c>
       <c r="D10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E10" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F10" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G10" s="5" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="H10" s="2"/>
       <c r="I10" s="2"/>
@@ -2304,16 +2281,16 @@
         <v>63</v>
       </c>
       <c r="D11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="E11" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F11" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G11" s="5" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="H11" s="2"/>
       <c r="I11" s="2"/>
@@ -2331,7 +2308,7 @@
       <c r="U11" s="3"/>
       <c r="V11" s="5"/>
       <c r="W11" s="5"/>
-      <c r="X11" s="5"/>
+      <c r="X11" s="7"/>
       <c r="Y11" s="6"/>
       <c r="Z11" s="2"/>
       <c r="AA11" s="2"/>
@@ -2355,16 +2332,16 @@
         <v>63</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E12" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F12" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G12" s="5" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="H12" s="2"/>
       <c r="I12" s="2"/>
@@ -2379,10 +2356,10 @@
       <c r="R12" s="2"/>
       <c r="S12" s="2"/>
       <c r="T12" s="2"/>
-      <c r="U12" s="3"/>
+      <c r="U12" s="5"/>
       <c r="V12" s="5"/>
       <c r="W12" s="5"/>
-      <c r="X12" s="7"/>
+      <c r="X12" s="5"/>
       <c r="Y12" s="6"/>
       <c r="Z12" s="2"/>
       <c r="AA12" s="2"/>
@@ -2406,18 +2383,18 @@
         <v>63</v>
       </c>
       <c r="D13" s="5" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E13" s="5" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F13" s="5" t="s">
         <v>27</v>
       </c>
       <c r="G13" s="5" t="s">
-        <v>72</v>
-      </c>
-      <c r="H13" s="2"/>
+        <v>70</v>
+      </c>
+      <c r="H13" s="8"/>
       <c r="I13" s="2"/>
       <c r="J13" s="2"/>
       <c r="K13" s="2"/>
@@ -2435,7 +2412,7 @@
       <c r="W13" s="5"/>
       <c r="X13" s="5"/>
       <c r="Y13" s="6"/>
-      <c r="Z13" s="2"/>
+      <c r="Z13" s="8"/>
       <c r="AA13" s="2"/>
       <c r="AB13" s="2"/>
       <c r="AC13" s="2"/>
@@ -2450,25 +2427,13 @@
     </row>
     <row r="14" spans="1:37">
       <c r="A14" s="2"/>
-      <c r="B14" s="5" t="s">
-        <v>68</v>
-      </c>
-      <c r="C14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="G14" s="5" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="8"/>
+      <c r="B14" s="5"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="5"/>
+      <c r="E14" s="5"/>
+      <c r="F14" s="5"/>
+      <c r="G14" s="6"/>
+      <c r="H14" s="2"/>
       <c r="I14" s="2"/>
       <c r="J14" s="2"/>
       <c r="K14" s="2"/>
@@ -2481,12 +2446,12 @@
       <c r="R14" s="2"/>
       <c r="S14" s="2"/>
       <c r="T14" s="2"/>
-      <c r="U14" s="5"/>
+      <c r="U14" s="3"/>
       <c r="V14" s="5"/>
       <c r="W14" s="5"/>
       <c r="X14" s="5"/>
       <c r="Y14" s="6"/>
-      <c r="Z14" s="8"/>
+      <c r="Z14" s="2"/>
       <c r="AA14" s="2"/>
       <c r="AB14" s="2"/>
       <c r="AC14" s="2"/>
@@ -2506,7 +2471,7 @@
       <c r="D15" s="5"/>
       <c r="E15" s="5"/>
       <c r="F15" s="5"/>
-      <c r="G15" s="6"/>
+      <c r="G15" s="8"/>
       <c r="H15" s="2"/>
       <c r="I15" s="2"/>
       <c r="J15" s="2"/>
@@ -2520,11 +2485,11 @@
       <c r="R15" s="2"/>
       <c r="S15" s="2"/>
       <c r="T15" s="2"/>
-      <c r="U15" s="3"/>
+      <c r="U15" s="5"/>
       <c r="V15" s="5"/>
       <c r="W15" s="5"/>
       <c r="X15" s="5"/>
-      <c r="Y15" s="6"/>
+      <c r="Y15" s="8"/>
       <c r="Z15" s="2"/>
       <c r="AA15" s="2"/>
       <c r="AB15" s="2"/>
@@ -2545,7 +2510,7 @@
       <c r="D16" s="5"/>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="8"/>
+      <c r="G16" s="9"/>
       <c r="H16" s="2"/>
       <c r="I16" s="2"/>
       <c r="J16" s="2"/>
@@ -2563,7 +2528,7 @@
       <c r="V16" s="5"/>
       <c r="W16" s="5"/>
       <c r="X16" s="5"/>
-      <c r="Y16" s="8"/>
+      <c r="Y16" s="9"/>
       <c r="Z16" s="2"/>
       <c r="AA16" s="2"/>
       <c r="AB16" s="2"/>
@@ -2637,7 +2602,7 @@
       <c r="R18" s="2"/>
       <c r="S18" s="2"/>
       <c r="T18" s="2"/>
-      <c r="U18" s="5"/>
+      <c r="U18" s="3"/>
       <c r="V18" s="5"/>
       <c r="W18" s="5"/>
       <c r="X18" s="5"/>
@@ -2676,7 +2641,7 @@
       <c r="R19" s="2"/>
       <c r="S19" s="2"/>
       <c r="T19" s="2"/>
-      <c r="U19" s="3"/>
+      <c r="U19" s="5"/>
       <c r="V19" s="5"/>
       <c r="W19" s="5"/>
       <c r="X19" s="5"/>
@@ -2694,7 +2659,7 @@
       <c r="AJ19" s="2"/>
       <c r="AK19" s="2"/>
     </row>
-    <row r="20" spans="1:37">
+    <row r="20" spans="1:37" ht="18" customHeight="1">
       <c r="A20" s="2"/>
       <c r="B20" s="5"/>
       <c r="C20" s="5"/>
@@ -2733,14 +2698,14 @@
       <c r="AJ20" s="2"/>
       <c r="AK20" s="2"/>
     </row>
-    <row r="21" spans="1:37" ht="18" customHeight="1">
+    <row r="21" spans="1:37">
       <c r="A21" s="2"/>
       <c r="B21" s="5"/>
       <c r="C21" s="5"/>
       <c r="D21" s="5"/>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="9"/>
+      <c r="G21" s="8"/>
       <c r="H21" s="2"/>
       <c r="I21" s="2"/>
       <c r="J21" s="2"/>
@@ -2758,7 +2723,7 @@
       <c r="V21" s="5"/>
       <c r="W21" s="5"/>
       <c r="X21" s="5"/>
-      <c r="Y21" s="9"/>
+      <c r="Y21" s="8"/>
       <c r="Z21" s="2"/>
       <c r="AA21" s="2"/>
       <c r="AB21" s="2"/>
@@ -2778,8 +2743,8 @@
       <c r="C22" s="5"/>
       <c r="D22" s="5"/>
       <c r="E22" s="5"/>
-      <c r="F22" s="5"/>
-      <c r="G22" s="8"/>
+      <c r="F22" s="7"/>
+      <c r="G22" s="6"/>
       <c r="H22" s="2"/>
       <c r="I22" s="2"/>
       <c r="J22" s="2"/>
@@ -2793,11 +2758,11 @@
       <c r="R22" s="2"/>
       <c r="S22" s="2"/>
       <c r="T22" s="2"/>
-      <c r="U22" s="5"/>
+      <c r="U22" s="1"/>
       <c r="V22" s="5"/>
       <c r="W22" s="5"/>
-      <c r="X22" s="5"/>
-      <c r="Y22" s="8"/>
+      <c r="X22" s="7"/>
+      <c r="Y22" s="6"/>
       <c r="Z22" s="2"/>
       <c r="AA22" s="2"/>
       <c r="AB22" s="2"/>
@@ -2817,7 +2782,7 @@
       <c r="C23" s="5"/>
       <c r="D23" s="5"/>
       <c r="E23" s="5"/>
-      <c r="F23" s="7"/>
+      <c r="F23" s="5"/>
       <c r="G23" s="6"/>
       <c r="H23" s="2"/>
       <c r="I23" s="2"/>
@@ -2835,7 +2800,7 @@
       <c r="U23" s="1"/>
       <c r="V23" s="5"/>
       <c r="W23" s="5"/>
-      <c r="X23" s="7"/>
+      <c r="X23" s="5"/>
       <c r="Y23" s="6"/>
       <c r="Z23" s="2"/>
       <c r="AA23" s="2"/>
@@ -2850,47 +2815,27 @@
       <c r="AJ23" s="2"/>
       <c r="AK23" s="2"/>
     </row>
-    <row r="24" spans="1:37">
-      <c r="A24" s="2"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="5"/>
-      <c r="G24" s="6"/>
-      <c r="H24" s="2"/>
-      <c r="I24" s="2"/>
-      <c r="J24" s="2"/>
-      <c r="K24" s="2"/>
-      <c r="L24" s="2"/>
-      <c r="M24" s="2"/>
-      <c r="N24" s="2"/>
-      <c r="O24" s="2"/>
-      <c r="P24" s="2"/>
-      <c r="Q24" s="2"/>
-      <c r="R24" s="2"/>
-      <c r="S24" s="2"/>
-      <c r="T24" s="2"/>
-      <c r="U24" s="1"/>
-      <c r="V24" s="5"/>
-      <c r="W24" s="5"/>
-      <c r="X24" s="5"/>
-      <c r="Y24" s="6"/>
-      <c r="Z24" s="2"/>
-      <c r="AA24" s="2"/>
-      <c r="AB24" s="2"/>
-      <c r="AC24" s="2"/>
-      <c r="AD24" s="2"/>
-      <c r="AE24" s="2"/>
-      <c r="AF24" s="2"/>
-      <c r="AG24" s="2"/>
-      <c r="AH24" s="2"/>
-      <c r="AI24" s="2"/>
-      <c r="AJ24" s="2"/>
-      <c r="AK24" s="2"/>
-    </row>
   </sheetData>
   <mergeCells count="35">
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M3:M4"/>
     <mergeCell ref="T1:AK1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
@@ -2906,26 +2851,7 @@
     <mergeCell ref="Z2:Z4"/>
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AE3:AE4"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:M4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B1:S1"/>
     <mergeCell ref="AI2:AI4"/>
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3135,7 +3061,7 @@
   <dimension ref="A1:S2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N38" sqref="N38"/>
+      <selection activeCell="K31" sqref="K31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>

--- a/pre_post_Meralco_test_Lab.xlsx
+++ b/pre_post_Meralco_test_Lab.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\OneDrive\Documents\GitHub\network-automation-lab\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DBDED326-9216-4FA5-B0CA-5681FD982803}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85D9F432-5458-4801-A97C-08135E0FD628}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RSL" sheetId="9" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="86">
   <si>
     <t>Client Node Name</t>
   </si>
@@ -294,6 +294,9 @@
   </si>
   <si>
     <t>172.10.1.50</t>
+  </si>
+  <si>
+    <t>NEW AN</t>
   </si>
 </sst>
 </file>
@@ -1276,16 +1279,16 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="A1:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="C2:C3"/>
+    <mergeCell ref="D2:D3"/>
+    <mergeCell ref="E2:E3"/>
     <mergeCell ref="S2:S3"/>
     <mergeCell ref="T2:T3"/>
     <mergeCell ref="U2:U3"/>
     <mergeCell ref="B1:N1"/>
     <mergeCell ref="O1:AA1"/>
-    <mergeCell ref="A1:A3"/>
-    <mergeCell ref="B2:B3"/>
-    <mergeCell ref="C2:C3"/>
-    <mergeCell ref="D2:D3"/>
-    <mergeCell ref="E2:E3"/>
     <mergeCell ref="F2:F3"/>
     <mergeCell ref="G2:G3"/>
     <mergeCell ref="H2:H3"/>
@@ -1530,8 +1533,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:D10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P30" sqref="P30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15"/>
@@ -1578,7 +1581,7 @@
         <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>85</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -2817,25 +2820,6 @@
     </row>
   </sheetData>
   <mergeCells count="35">
-    <mergeCell ref="AJ2:AJ4"/>
-    <mergeCell ref="AK2:AK4"/>
-    <mergeCell ref="J3:L3"/>
-    <mergeCell ref="N3:P3"/>
-    <mergeCell ref="AB3:AD3"/>
-    <mergeCell ref="AF3:AH3"/>
-    <mergeCell ref="Q2:Q4"/>
-    <mergeCell ref="R2:R4"/>
-    <mergeCell ref="A1:A4"/>
-    <mergeCell ref="B2:B4"/>
-    <mergeCell ref="C2:C4"/>
-    <mergeCell ref="D2:D4"/>
-    <mergeCell ref="E2:E4"/>
-    <mergeCell ref="B1:S1"/>
-    <mergeCell ref="F2:F4"/>
-    <mergeCell ref="G2:G4"/>
-    <mergeCell ref="H2:H4"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="M3:M4"/>
     <mergeCell ref="T1:AK1"/>
     <mergeCell ref="I2:L2"/>
     <mergeCell ref="M2:P2"/>
@@ -2852,6 +2836,25 @@
     <mergeCell ref="AA3:AA4"/>
     <mergeCell ref="AE3:AE4"/>
     <mergeCell ref="AI2:AI4"/>
+    <mergeCell ref="A1:A4"/>
+    <mergeCell ref="B2:B4"/>
+    <mergeCell ref="C2:C4"/>
+    <mergeCell ref="D2:D4"/>
+    <mergeCell ref="E2:E4"/>
+    <mergeCell ref="B1:S1"/>
+    <mergeCell ref="F2:F4"/>
+    <mergeCell ref="G2:G4"/>
+    <mergeCell ref="H2:H4"/>
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="M3:M4"/>
+    <mergeCell ref="AJ2:AJ4"/>
+    <mergeCell ref="AK2:AK4"/>
+    <mergeCell ref="J3:L3"/>
+    <mergeCell ref="N3:P3"/>
+    <mergeCell ref="AB3:AD3"/>
+    <mergeCell ref="AF3:AH3"/>
+    <mergeCell ref="Q2:Q4"/>
+    <mergeCell ref="R2:R4"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3060,8 +3063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:S2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K31" sqref="K31"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N22" sqref="N22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
